--- a/data/output/clean_handlabeled_data.xlsx
+++ b/data/output/clean_handlabeled_data.xlsx
@@ -46,7 +46,7 @@
     <t>see, joke, right, smell, ponzihistory, doesnt, repeat, rhyme, go, end, well, hold</t>
   </si>
   <si>
-    <t>bear, case, touch, fall, bull, case, it, retest, take</t>
+    <t>bear, case, touch, fall, bull, case, retest, take</t>
   </si>
   <si>
     <t>distance, reentering, downward, channel, pullback, support, unlikely, due, volume, disapproval</t>
@@ -106,7 +106,7 @@
     <t>buy, call, roaring</t>
   </si>
   <si>
-    <t>guy, musk, make, million, dollar, past, hour, half, stock, increase, isnt, true, do, fraud, allegation, logic, say, true, stock, go, optimisticvalue, ppl, option, call</t>
+    <t>guy, musk, make, million, dollar, past, hour, half, stock, increase, isnt, true, fraud, allegation, logic, say, true, stock, go, optimisticvalue, ppl, option, call</t>
   </si>
   <si>
     <t>indian, substantial, amount, bitcoin, prob, less, pessimisticvalue, total, available, market</t>
@@ -277,7 +277,7 @@
     <t>view, tesla, break, soon, barrière, optimisticvalue, towards, past, year, tesla, lot, issue, solve, know, elon, musk, still, buy, million, share, come, day, week, mshow</t>
   </si>
   <si>
-    <t>look, like, whale, do, spawn, need, feed</t>
+    <t>look, like, whale, spawn, need, feed</t>
   </si>
   <si>
     <t>know, gon, na, red, eod, short, green, get, nice, christmas, present</t>
@@ -292,7 +292,7 @@
     <t>revenue, graphic, chipmaker, nvidia, surge, per, cent, first, quarter, bn, surpass, analyst, ’, forecast, thanks, strong, growth, customer, data, centre, video, gamers</t>
   </si>
   <si>
-    <t>may, could, tesla, imminent, sec, investigation, announce, go, private, know, floated, price, may, quell, downside, speculation, part</t>
+    <t>may, could, tesla, imminent, sec, investigation, announce, go, private, know, float, price, may, quell, downside, speculation, part</t>
   </si>
   <si>
     <t>rule, break, north, bfinex, chart, south, chart, like, gdax, lol</t>
@@ -367,7 +367,7 @@
     <t>genuious, like, elon, productionside, someone, like, warren, finance, would, make, tesla, unstoppable, elon, get, babyproblem</t>
   </si>
   <si>
-    <t>whos, get, good, laugh</t>
+    <t>who, get, good, laugh</t>
   </si>
   <si>
     <t>k, get, kill, trading, account, great</t>
@@ -457,7 +457,7 @@
     <t>hello, everyone, university, dissertation, crypto, wondering, lot, could, quick, survey, please</t>
   </si>
   <si>
-    <t>minor, fed, try, pump, jam</t>
+    <t>minor, feed, try, pump, jam</t>
   </si>
   <si>
     <t>dax, bankruptcy</t>
@@ -547,7 +547,7 @@
     <t>good, morning, nyc, prepare, purchase, order, go, big, party</t>
   </si>
   <si>
-    <t>fed, stock, want, feel, hype, cryptos, sc, siacoin, x, daysits, worth, get, fast, profit</t>
+    <t>feed, stock, want, feel, hype, cryptos, sc, siacoin, x, daysits, worth, get, fast, profit</t>
   </si>
   <si>
     <t>cant, break, h, channel, see, target, june, pessimisticvalue, finally, hit</t>
@@ -574,7 +574,7 @@
     <t>think, break, support, week, end, better, buy, monday</t>
   </si>
   <si>
-    <t>drop, do, let, kick, short, let, go</t>
+    <t>drop, let, kick, short, let, go</t>
   </si>
   <si>
     <t>inversion, swap, gov, bond, bear, wake, long, hibernation, hungry</t>
@@ -667,7 +667,7 @@
     <t>even, sell, bicycle, invest, cryptocrap, didnt, get, profit, walk, go, work, bicycle</t>
   </si>
   <si>
-    <t>whale, spike, btc, decides, drop, hammer, chaos</t>
+    <t>whale, spike, btc, decide, drop, hammer, chaos</t>
   </si>
   <si>
     <t>short, dow, k</t>
@@ -754,7 +754,7 @@
     <t>go, high</t>
   </si>
   <si>
-    <t>let, get, autodata, report, sale, data, correct, gm, sell, chevy, bolt, teslas, model, tesla, leader, electric, car, roll</t>
+    <t>let, get, autodata, report, sale, data, correct, gm, sell, chevy, bolt, tesla, model, tesla, leader, electric, car, roll</t>
   </si>
   <si>
     <t>tether, bot, bitfinex, use, defend, btc, price, look, like, resource, pump</t>
@@ -793,7 +793,7 @@
     <t>info, tsla, short, interest, bn, mm, share, short, float</t>
   </si>
   <si>
-    <t>who, short, anyone</t>
+    <t>short, anyone</t>
   </si>
   <si>
     <t>us, first, quarter, gdp, expect, low, shout, government, worker, get, pay</t>
@@ -823,7 +823,7 @@
     <t>still, pessimisticvalue, k, till, cryptogeorge, lol</t>
   </si>
   <si>
-    <t>well, do, trump, christmas, rally, thanks</t>
+    <t>well, trump, christmas, rally, thanks</t>
   </si>
   <si>
     <t>u, people, think, early, jump</t>
@@ -913,7 +913,7 @@
     <t>china, tariff, car, import, us</t>
   </si>
   <si>
-    <t>fall, love, copypaste, mistake, fanatic, consider, speculator, know, product, value, thats, buy, like, speculator, buys, rise, give, yield, stock, indshow</t>
+    <t>fall, love, copypaste, mistake, fanatic, consider, speculator, know, product, value, thats, buy, like, speculator, buy, rise, give, yield, stock, indshow</t>
   </si>
   <si>
     <t>chaos, come, first, situatio, wait, us</t>
@@ -1066,7 +1066,7 @@
     <t>sell, pessimisticvalue, support, end, bullish</t>
   </si>
   <si>
-    <t>there, rise, provide, upward, support, day, sit, pt, present</t>
+    <t>rise, provide, upward, support, day, sit, pt, present</t>
   </si>
   <si>
     <t>yes, quite, bad, trust, tesla</t>
@@ -1099,7 +1099,7 @@
     <t>today, pessimisticvalue</t>
   </si>
   <si>
-    <t>bartizination, flag, zone, deadline, pass, pessimisticvalue, hour, ago, expect, sideways, week, fighter, jet, spectacle</t>
+    <t>bartizination, flag, zone, deadline, pas, pessimisticvalue, hour, ago, expect, sideways, week, fighter, jet, spectacle</t>
   </si>
   <si>
     <t>insane</t>
@@ -1108,7 +1108,7 @@
     <t>short, get, nail, soon, little, bit, time, look, like, hold</t>
   </si>
   <si>
-    <t>bitcoin, violates, rule, money, around, people, need, conduct, business, bitcoin</t>
+    <t>bitcoin, violate, rule, money, around, people, need, conduct, business, bitcoin</t>
   </si>
   <si>
     <t>buy, trigger, hit, time, every, day, lately</t>
@@ -1126,7 +1126,7 @@
     <t>buy, yesterday, optimisticvalue, buy, today, iam, hold</t>
   </si>
   <si>
-    <t>well, added, short, dead, cat, do, bouncing</t>
+    <t>well, add, short, dead, cat, bouncing</t>
   </si>
   <si>
     <t>market, close, moderately, high</t>
@@ -1135,7 +1135,7 @@
     <t>week, delivery, price, go, look</t>
   </si>
   <si>
-    <t>kumar, vanish, think, he, set, longs, lol</t>
+    <t>kumar, vanish, think, set, longs, lol</t>
   </si>
   <si>
     <t>pls, tell</t>
@@ -1204,7 +1204,7 @@
     <t>seem, like, itll, fall, pessimisticvalue, go, id, suggest, wait, sell, point</t>
   </si>
   <si>
-    <t>sober, reminder, lopsided, wealth, distribution, crypto, hodl, strategy, say, million, time, here, study, nnn, pessimisticvalue, bitcoinmayevolveintowhashow</t>
+    <t>sober, reminder, lopsided, wealth, distribution, crypto, hodl, strategy, say, million, time, study, nnn, pessimisticvalue, bitcoinmayevolveintowhashow</t>
   </si>
   <si>
     <t>dow, jump</t>
@@ -1360,7 +1360,7 @@
     <t>today, pessimisticvalue, witch</t>
   </si>
   <si>
-    <t>today, even, second, upward, signal, indicate, growth, daily, ema, pessimisticvalue, also, correspond, weekly, mkc, ema, weekly, mbb, sma, alarm, overheated, h, h, h, projection, ishow</t>
+    <t>today, even, second, upward, signal, indicate, growth, daily, ema, pessimisticvalue, also, correspond, weekly, mkc, ema, weekly, mbb, sma, alarm, overheat, h, h, h, projection, ishow</t>
   </si>
   <si>
     <t>trading, dow, nasdaq, like, play, blue, whale, one, way</t>
@@ -1912,7 +1912,7 @@
     <t>optimisticvalue, end, january</t>
   </si>
   <si>
-    <t>seriously, though, sideways, trading, last, another, couple, hour, look, lot, buys, come, around, dawn, edt</t>
+    <t>seriously, though, sideways, trading, last, another, couple, hour, look, lot, buy, come, around, dawn, edt</t>
   </si>
   <si>
     <t>buy, hold, wont, sorry, optimisticvalue, come, back, retrace, break, optimisticvalue, towards, fibo, ext, april, near, kapple, near, perhaps, high, facebook, fully, recover, etc</t>
@@ -1981,7 +1981,7 @@
     <t>hour, already, tomorrow, even, low</t>
   </si>
   <si>
-    <t>tether, usdt, get, closer, empty, treasury, token, intervention, news, tab, know, mean, get, ready, another, journey, way, k</t>
+    <t>tether, usdt, get, close, empty, treasury, token, intervention, news, tab, know, mean, get, ready, another, journey, way, k</t>
   </si>
   <si>
     <t>year, year, u, change, accord, situation, otherwise, miss, golden, opportunity, like, jokerfoxxxxhahahaha, joker, miss, opportunity, last, year, even, market, fall, situation, wilshow</t>
@@ -1999,7 +1999,7 @@
     <t>stock, worth, nothing</t>
   </si>
   <si>
-    <t>since, low, february, pessimisticvalue, see, high, low, higher, high</t>
+    <t>since, low, february, pessimisticvalue, see, high, low, high, high</t>
   </si>
   <si>
     <t>alteast, point, idea, cpi, data</t>
@@ -2131,7 +2131,7 @@
     <t>time, sell, sell, sell</t>
   </si>
   <si>
-    <t>invest, lol, forgot, political, riskand, feed, trump, hater, maxine, water, threat</t>
+    <t>invest, lol, forget, political, riskand, feed, trump, hater, maxine, water, threat</t>
   </si>
   <si>
     <t>dead, cat, bounce, pessimisticvalue, gon, na, buy, call, anyways, next, time, attack, break, go, real, plan, short, next, week, prob</t>
@@ -2140,7 +2140,7 @@
     <t>many, btc, accumulate, bear, market, almost, btc, btc, alt, btc, alt</t>
   </si>
   <si>
-    <t>yesterday, djia, close, v, today, outstanding, example, ive, see, market, manipulation, recent, time, feed, gs, da, boyz, complicit</t>
+    <t>yesterday, djia, close, v, today, outstanding, example, ive, see, market, manipulation, recent, time, feed, g, da, boyz, complicit</t>
   </si>
   <si>
     <t>seem, zero, demand, model, side, see, musk, lie</t>
@@ -2308,7 +2308,7 @@
     <t>allah, beer, board, mess</t>
   </si>
   <si>
-    <t>usa, own, chinese</t>
+    <t>usa, chinese</t>
   </si>
   <si>
     <t>bottom</t>
@@ -2326,10 +2326,10 @@
     <t>winampwin, bull</t>
   </si>
   <si>
-    <t>train, stop, drive, everyone, get, get, next, station, yet, know, boarding, still, train, ride, walk, pace, top, speed, train, unknown, well, first, station, stop, ashow</t>
-  </si>
-  <si>
-    <t>wti, trader, sophie, jacob, person, swat, flys, away, via, block, button</t>
+    <t>train, stop, drive, everyone, get, get, next, station, yet, know, board, still, train, ride, walk, pace, top, speed, train, unknown, well, first, station, stop, ashow</t>
+  </si>
+  <si>
+    <t>wti, trader, sophie, jacob, person, swat, fly, away, via, block, button</t>
   </si>
   <si>
     <t>pessimisticvalue, come</t>
@@ -2389,7 +2389,7 @@
     <t>hope, btc, sink, without, touch, pessimisticvalue, k</t>
   </si>
   <si>
-    <t>round, today, dows, ath, maybe, there, hidden, message, maybe, time, get, another, dog</t>
+    <t>round, today, dows, ath, maybe, hidden, message, maybe, time, get, another, dog</t>
   </si>
   <si>
     <t>im, confuse</t>
@@ -2437,7 +2437,7 @@
     <t>aint, touch, til, get, near, pessimisticvalue</t>
   </si>
   <si>
-    <t>hit, pessimisticvalue, morning, go, easter, almost, do, allready, many, negative, hit, imo, get, positivity, hodl</t>
+    <t>hit, pessimisticvalue, morning, go, easter, almost, allready, many, negative, hit, imo, get, positivity, hodl</t>
   </si>
   <si>
     <t>place, buy, long, term, im, new, index</t>
@@ -2452,7 +2452,7 @@
     <t>go, close, green, fill, gap</t>
   </si>
   <si>
-    <t>well, got, burn, twice, current, run, last, week, week, short, put, pessimisticvalue, share, stock, know, better, obviously, short, squeeze, short, prior, show</t>
+    <t>well, get, burn, twice, current, run, last, week, week, short, put, pessimisticvalue, share, stock, know, better, obviously, short, squeeze, short, prior, show</t>
   </si>
   <si>
     <t>somebody, buy, veros, vts, congratulation, rich</t>
@@ -2479,7 +2479,7 @@
     <t>hilarious, add, short</t>
   </si>
   <si>
-    <t>hope, do, guess, optimisticvalue, way</t>
+    <t>hope, guess, optimisticvalue, way</t>
   </si>
   <si>
     <t>seem, like, go, safe, buy, area</t>
@@ -2509,7 +2509,7 @@
     <t>manufacture, petrol, car</t>
   </si>
   <si>
-    <t>saw, asian, guy, tv, last, month, say, selling, house, want, accept, btc, wonder, work, lol, lol</t>
+    <t>saw, asian, guy, tv, last, month, say, sell, house, want, accept, btc, wonder, work, lol, lol</t>
   </si>
   <si>
     <t>algorithms, controlplace, sell, order</t>
@@ -2539,7 +2539,7 @@
     <t>germany, ’, large, stock, exchange, deutsche, börse, work, deep, bitcoin, news, exchange, currently, understand, concept, “, underlying, transaction, ”, regulatory, effect, launch, bitcoin, service, come, week, germany, ’, nd, large, bshow</t>
   </si>
   <si>
-    <t>impossible, volatility, feed, normally, dow, fluctuate, day, something, else, middle, trouble</t>
+    <t>impossible, volatility, fee, normally, dow, fluctuate, day, something, else, middle, trouble</t>
   </si>
   <si>
     <t>time, short, optimisticvalue</t>
@@ -2596,7 +2596,7 @@
     <t>bull, lie, cheat, save, lively, hoodsanything</t>
   </si>
   <si>
-    <t>people, china, get, fin, demoted, workplace, apple, iphones, imagine, someone, drive, tesla, work, china, lol</t>
+    <t>people, china, get, fin, demote, workplace, apple, iphones, imagine, someone, drive, tesla, work, china, lol</t>
   </si>
   <si>
     <t>run, look, like</t>
@@ -2662,7 +2662,7 @@
     <t>break, pessimisticvalue, today, next, stop</t>
   </si>
   <si>
-    <t>here, reasonable, estimate, nnn, pessimisticvalue</t>
+    <t>reasonable, estimate, nnn, pessimisticvalue</t>
   </si>
   <si>
     <t>move, abc, upper, end, rise, channel, open</t>
@@ -2878,13 +2878,13 @@
     <t>loli, guess, would, wish, id, dont, kid, yourselfits, fall, knifetake, profit</t>
   </si>
   <si>
-    <t>unless, confirms, hand, method, would, wait, buy, retest, seller, close, give, ais, pesky, devil, make, play, game</t>
+    <t>unless, confirms, hand, method, would, wait, buy, retest, seller, close, give, ai, pesky, devil, make, play, game</t>
   </si>
   <si>
     <t>come, beautiful, red, christmas</t>
   </si>
   <si>
-    <t>please, dont, panic, there, tesla, space</t>
+    <t>please, dont, panic, tesla, space</t>
   </si>
   <si>
     <t>south, korean, card, company, block, transaction, overseas, cryptocurrency, exchange</t>
@@ -2893,10 +2893,10 @@
     <t>china, stock, rally, policy, ease, speculation</t>
   </si>
   <si>
-    <t>news, last, month, start, sell, eu, china, become, selling, car, germany, norway, k, model, model, become, available, us, become, sell, car, california, big, car, market, us, deliveries, tshow</t>
-  </si>
-  <si>
-    <t>sip, at, breakfast</t>
+    <t>news, last, month, start, sell, eu, china, become, sell, car, germany, norway, k, model, model, become, available, us, become, sell, car, california, big, car, market, us, deliveries, tshow</t>
+  </si>
+  <si>
+    <t>sip, breakfast</t>
   </si>
   <si>
     <t>try, tell, earlier, k, capitulation</t>

--- a/data/output/clean_handlabeled_data.xlsx
+++ b/data/output/clean_handlabeled_data.xlsx
@@ -3401,7 +3401,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -3412,7 +3412,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -3434,7 +3434,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -3445,7 +3445,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -3456,7 +3456,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -3467,7 +3467,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -3478,7 +3478,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -3489,7 +3489,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -3522,7 +3522,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -3544,7 +3544,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -3555,7 +3555,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -3566,7 +3566,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
@@ -3588,7 +3588,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
@@ -3599,7 +3599,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
@@ -3610,7 +3610,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
@@ -3621,7 +3621,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
@@ -3632,7 +3632,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
@@ -3643,7 +3643,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
@@ -3665,7 +3665,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>38</v>
@@ -3698,7 +3698,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>39</v>
@@ -3709,7 +3709,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>40</v>
@@ -3720,7 +3720,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>41</v>
@@ -3731,7 +3731,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>42</v>
@@ -3742,7 +3742,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>43</v>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>44</v>
@@ -3764,7 +3764,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>45</v>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>46</v>
@@ -3786,7 +3786,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>47</v>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>48</v>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>49</v>
@@ -3819,7 +3819,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>50</v>
@@ -3830,7 +3830,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>51</v>
@@ -3841,7 +3841,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
         <v>52</v>
@@ -3852,7 +3852,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>53</v>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>54</v>
@@ -3874,7 +3874,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>55</v>
@@ -3885,7 +3885,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>56</v>
@@ -3896,7 +3896,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>57</v>
@@ -3907,7 +3907,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>58</v>
@@ -3918,7 +3918,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>59</v>
@@ -3929,7 +3929,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>60</v>
@@ -3940,7 +3940,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>61</v>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>62</v>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>63</v>
@@ -3973,7 +3973,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>64</v>
@@ -3984,7 +3984,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>65</v>
@@ -3995,7 +3995,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>66</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>67</v>
@@ -4017,7 +4017,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>68</v>
@@ -4028,7 +4028,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>69</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>70</v>
@@ -4050,7 +4050,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
         <v>71</v>
@@ -4061,7 +4061,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
         <v>72</v>
@@ -4072,7 +4072,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
         <v>73</v>
@@ -4083,7 +4083,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
         <v>74</v>
@@ -4094,7 +4094,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
         <v>75</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
         <v>76</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
         <v>77</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
         <v>78</v>
@@ -4138,7 +4138,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>79</v>
@@ -4149,7 +4149,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
         <v>80</v>
@@ -4160,7 +4160,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
         <v>81</v>
@@ -4171,7 +4171,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
         <v>82</v>
@@ -4182,7 +4182,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
         <v>83</v>
@@ -4193,7 +4193,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
         <v>84</v>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
         <v>85</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
         <v>86</v>
@@ -4226,7 +4226,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
         <v>87</v>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
         <v>88</v>
@@ -4248,7 +4248,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
         <v>89</v>
@@ -4259,7 +4259,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B90" t="s">
         <v>90</v>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B91" t="s">
         <v>91</v>
@@ -4281,7 +4281,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
         <v>92</v>
@@ -4292,7 +4292,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B93" t="s">
         <v>93</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B94" t="s">
         <v>94</v>
@@ -4314,7 +4314,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
         <v>95</v>
@@ -4325,7 +4325,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B96" t="s">
         <v>96</v>
@@ -4336,7 +4336,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B97" t="s">
         <v>97</v>
@@ -4347,7 +4347,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B98" t="s">
         <v>98</v>
@@ -4358,7 +4358,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
         <v>99</v>
@@ -4369,7 +4369,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B100" t="s">
         <v>100</v>
@@ -4380,7 +4380,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B101" t="s">
         <v>101</v>
@@ -4391,7 +4391,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B102" t="s">
         <v>102</v>
@@ -4402,7 +4402,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B103" t="s">
         <v>103</v>
@@ -4413,7 +4413,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B104" t="s">
         <v>104</v>
@@ -4424,7 +4424,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B105" t="s">
         <v>105</v>
@@ -4435,7 +4435,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B106" t="s">
         <v>106</v>
@@ -4446,7 +4446,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B107" t="s">
         <v>107</v>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B108" t="s">
         <v>108</v>
@@ -4468,7 +4468,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B109" t="s">
         <v>109</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B110" t="s">
         <v>110</v>
@@ -4490,7 +4490,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B111" t="s">
         <v>111</v>
@@ -4501,7 +4501,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B112" t="s">
         <v>112</v>
@@ -4512,7 +4512,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B113" t="s">
         <v>113</v>
@@ -4523,7 +4523,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B114" t="s">
         <v>114</v>
@@ -4534,7 +4534,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B115" t="s">
         <v>115</v>
@@ -4545,7 +4545,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B116" t="s">
         <v>116</v>
@@ -4556,7 +4556,7 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B117" t="s">
         <v>117</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B118" t="s">
         <v>118</v>
@@ -4578,7 +4578,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B119" t="s">
         <v>119</v>
@@ -4589,7 +4589,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B120" t="s">
         <v>120</v>
@@ -4600,7 +4600,7 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B121" t="s">
         <v>121</v>
@@ -4611,7 +4611,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B122" t="s">
         <v>122</v>
@@ -4622,7 +4622,7 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B123" t="s">
         <v>123</v>
@@ -4633,7 +4633,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B124" t="s">
         <v>124</v>
@@ -4644,7 +4644,7 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B125" t="s">
         <v>125</v>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B126" t="s">
         <v>126</v>
@@ -4666,7 +4666,7 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B127" t="s">
         <v>127</v>
@@ -4677,7 +4677,7 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B128" t="s">
         <v>128</v>
@@ -4688,7 +4688,7 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B129" t="s">
         <v>129</v>
@@ -4699,7 +4699,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B130" t="s">
         <v>130</v>
@@ -4710,7 +4710,7 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B131" t="s">
         <v>131</v>
@@ -4721,7 +4721,7 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B132" t="s">
         <v>132</v>
@@ -4732,7 +4732,7 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B133" t="s">
         <v>133</v>
@@ -4743,7 +4743,7 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B134" t="s">
         <v>134</v>
@@ -4754,7 +4754,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B135" t="s">
         <v>135</v>
@@ -4765,7 +4765,7 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B136" t="s">
         <v>136</v>
@@ -4776,7 +4776,7 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B137" t="s">
         <v>137</v>
@@ -4787,7 +4787,7 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B138" t="s">
         <v>138</v>
@@ -4798,7 +4798,7 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B139" t="s">
         <v>139</v>
@@ -4809,7 +4809,7 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B140" t="s">
         <v>140</v>
@@ -4820,7 +4820,7 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B141" t="s">
         <v>141</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B142" t="s">
         <v>142</v>
@@ -4842,7 +4842,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B143" t="s">
         <v>143</v>
@@ -4853,7 +4853,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B144" t="s">
         <v>144</v>
@@ -4864,7 +4864,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B145" t="s">
         <v>145</v>
@@ -4875,7 +4875,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B146" t="s">
         <v>146</v>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B147" t="s">
         <v>147</v>
@@ -4897,7 +4897,7 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B148" t="s">
         <v>148</v>
@@ -4908,7 +4908,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B149" t="s">
         <v>149</v>
@@ -4919,7 +4919,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B150" t="s">
         <v>150</v>
@@ -4930,7 +4930,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B151" t="s">
         <v>151</v>
@@ -4941,7 +4941,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B152" t="s">
         <v>152</v>
@@ -4952,7 +4952,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B153" t="s">
         <v>153</v>
@@ -4963,7 +4963,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B154" t="s">
         <v>154</v>
@@ -4974,7 +4974,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B155" t="s">
         <v>155</v>
@@ -4985,7 +4985,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B156" t="s">
         <v>156</v>
@@ -4996,7 +4996,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B157" t="s">
         <v>157</v>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B158" t="s">
         <v>158</v>
@@ -5018,7 +5018,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B159" t="s">
         <v>159</v>
@@ -5029,7 +5029,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B160" t="s">
         <v>160</v>
@@ -5040,7 +5040,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B161" t="s">
         <v>161</v>
@@ -5051,7 +5051,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B162" t="s">
         <v>162</v>
@@ -5062,7 +5062,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B163" t="s">
         <v>163</v>
@@ -5073,7 +5073,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B164" t="s">
         <v>164</v>
@@ -5084,7 +5084,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B165" t="s">
         <v>165</v>
@@ -5095,7 +5095,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B166" t="s">
         <v>128</v>
@@ -5106,7 +5106,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B167" t="s">
         <v>166</v>
@@ -5117,7 +5117,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B168" t="s">
         <v>167</v>
@@ -5128,7 +5128,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B169" t="s">
         <v>138</v>
@@ -5139,7 +5139,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B170" t="s">
         <v>168</v>
@@ -5150,7 +5150,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="1">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B171" t="s">
         <v>169</v>
@@ -5161,7 +5161,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="1">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B172" t="s">
         <v>170</v>
@@ -5172,7 +5172,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="1">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B173" t="s">
         <v>171</v>
@@ -5183,7 +5183,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="1">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B174" t="s">
         <v>172</v>
@@ -5194,7 +5194,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="1">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B175" t="s">
         <v>173</v>
@@ -5205,7 +5205,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="1">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B176" t="s">
         <v>174</v>
@@ -5216,7 +5216,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="1">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B177" t="s">
         <v>175</v>
@@ -5227,7 +5227,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="1">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B178" t="s">
         <v>176</v>
@@ -5238,7 +5238,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="1">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B179" t="s">
         <v>177</v>
@@ -5249,7 +5249,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="1">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B180" t="s">
         <v>178</v>
@@ -5260,7 +5260,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="1">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B181" t="s">
         <v>179</v>
@@ -5271,7 +5271,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="1">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B182" t="s">
         <v>180</v>
@@ -5282,7 +5282,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="1">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B183" t="s">
         <v>181</v>
@@ -5293,7 +5293,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="1">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B184" t="s">
         <v>182</v>
@@ -5304,7 +5304,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B185" t="s">
         <v>183</v>
@@ -5315,7 +5315,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="1">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B186" t="s">
         <v>184</v>
@@ -5326,7 +5326,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="1">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B187" t="s">
         <v>185</v>
@@ -5337,7 +5337,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="1">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B188" t="s">
         <v>186</v>
@@ -5348,7 +5348,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="1">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B189" t="s">
         <v>187</v>
@@ -5359,7 +5359,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="1">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B190" t="s">
         <v>188</v>
@@ -5370,7 +5370,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="1">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B191" t="s">
         <v>189</v>
@@ -5381,7 +5381,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="1">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B192" t="s">
         <v>190</v>
@@ -5392,7 +5392,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="1">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B193" t="s">
         <v>191</v>
@@ -5403,7 +5403,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="1">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B194" t="s">
         <v>192</v>
@@ -5414,7 +5414,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="1">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B195" t="s">
         <v>193</v>
@@ -5425,7 +5425,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="1">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B196" t="s">
         <v>194</v>
@@ -5436,7 +5436,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="1">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B197" t="s">
         <v>195</v>
@@ -5447,7 +5447,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="1">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B198" t="s">
         <v>196</v>
@@ -5458,7 +5458,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="1">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B199" t="s">
         <v>197</v>
@@ -5469,7 +5469,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="1">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B200" t="s">
         <v>198</v>
@@ -5480,7 +5480,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="1">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B201" t="s">
         <v>199</v>
@@ -5491,7 +5491,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="1">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B202" t="s">
         <v>200</v>
@@ -5502,7 +5502,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="1">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B203" t="s">
         <v>201</v>
@@ -5513,7 +5513,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="1">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B204" t="s">
         <v>202</v>
@@ -5524,7 +5524,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="1">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B205" t="s">
         <v>203</v>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="1">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B206" t="s">
         <v>204</v>
@@ -5546,7 +5546,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="1">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B207" t="s">
         <v>205</v>
@@ -5557,7 +5557,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="1">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B208" t="s">
         <v>206</v>
@@ -5568,7 +5568,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="1">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B209" t="s">
         <v>207</v>
@@ -5579,7 +5579,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="1">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B210" t="s">
         <v>208</v>
@@ -5590,7 +5590,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="1">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B211" t="s">
         <v>209</v>
@@ -5601,7 +5601,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="1">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B212" t="s">
         <v>210</v>
@@ -5612,7 +5612,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="1">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B213" t="s">
         <v>211</v>
@@ -5623,7 +5623,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="1">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B214" t="s">
         <v>212</v>
@@ -5634,7 +5634,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="1">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B215" t="s">
         <v>213</v>
@@ -5645,7 +5645,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="1">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B216" t="s">
         <v>214</v>
@@ -5656,7 +5656,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="1">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B217" t="s">
         <v>215</v>
@@ -5667,7 +5667,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="1">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B218" t="s">
         <v>216</v>
@@ -5678,7 +5678,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="1">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B219" t="s">
         <v>217</v>
@@ -5689,7 +5689,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="1">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B220" t="s">
         <v>218</v>
@@ -5700,7 +5700,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="1">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B221" t="s">
         <v>219</v>
@@ -5711,7 +5711,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="1">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B222" t="s">
         <v>220</v>
@@ -5722,7 +5722,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="1">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B223" t="s">
         <v>221</v>
@@ -5733,7 +5733,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="1">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B224" t="s">
         <v>222</v>
@@ -5744,7 +5744,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="1">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B225" t="s">
         <v>223</v>
@@ -5755,7 +5755,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="1">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B226" t="s">
         <v>224</v>
@@ -5766,7 +5766,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="1">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B227" t="s">
         <v>225</v>
@@ -5777,7 +5777,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="1">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B228" t="s">
         <v>226</v>
@@ -5788,7 +5788,7 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="1">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B229" t="s">
         <v>227</v>
@@ -5799,7 +5799,7 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="1">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B230" t="s">
         <v>228</v>
@@ -5810,7 +5810,7 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="1">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B231" t="s">
         <v>229</v>
@@ -5821,7 +5821,7 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="1">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B232" t="s">
         <v>230</v>
@@ -5832,7 +5832,7 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="1">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B233" t="s">
         <v>231</v>
@@ -5843,7 +5843,7 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="1">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B234" t="s">
         <v>232</v>
@@ -5854,7 +5854,7 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="1">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B235" t="s">
         <v>233</v>
@@ -5865,7 +5865,7 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="1">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B236" t="s">
         <v>234</v>
@@ -5876,7 +5876,7 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="1">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B237" t="s">
         <v>235</v>
@@ -5887,7 +5887,7 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="1">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B238" t="s">
         <v>236</v>
@@ -5898,7 +5898,7 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="1">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B239" t="s">
         <v>237</v>
@@ -5909,7 +5909,7 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="1">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B240" t="s">
         <v>238</v>
@@ -5920,7 +5920,7 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="1">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B241" t="s">
         <v>239</v>
@@ -5931,7 +5931,7 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="1">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B242" t="s">
         <v>240</v>
@@ -5942,7 +5942,7 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B243" t="s">
         <v>241</v>
@@ -5953,7 +5953,7 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B244" t="s">
         <v>242</v>
@@ -5964,7 +5964,7 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B245" t="s">
         <v>243</v>
@@ -5975,7 +5975,7 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B246" t="s">
         <v>244</v>
@@ -5986,7 +5986,7 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="1">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B247" t="s">
         <v>245</v>
@@ -5997,7 +5997,7 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="1">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B248" t="s">
         <v>246</v>
@@ -6008,7 +6008,7 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="1">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B249" t="s">
         <v>247</v>
@@ -6019,7 +6019,7 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="1">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B250" t="s">
         <v>248</v>
@@ -6030,7 +6030,7 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="1">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B251" t="s">
         <v>249</v>
@@ -6041,7 +6041,7 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="1">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B252" t="s">
         <v>250</v>
@@ -6052,7 +6052,7 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="1">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B253" t="s">
         <v>251</v>
@@ -6063,7 +6063,7 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="1">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B254" t="s">
         <v>252</v>
@@ -6074,7 +6074,7 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="1">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B255" t="s">
         <v>253</v>
@@ -6085,7 +6085,7 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="1">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B256" t="s">
         <v>254</v>
@@ -6096,7 +6096,7 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="1">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B257" t="s">
         <v>255</v>
@@ -6107,7 +6107,7 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="1">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B258" t="s">
         <v>256</v>
@@ -6118,7 +6118,7 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="1">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B259" t="s">
         <v>257</v>
@@ -6129,7 +6129,7 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="1">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B260" t="s">
         <v>258</v>
@@ -6140,7 +6140,7 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="1">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B261" t="s">
         <v>259</v>
@@ -6151,7 +6151,7 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="1">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B262" t="s">
         <v>260</v>
@@ -6162,7 +6162,7 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="1">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B263" t="s">
         <v>261</v>
@@ -6173,7 +6173,7 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="1">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B264" t="s">
         <v>262</v>
@@ -6184,7 +6184,7 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="1">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B265" t="s">
         <v>263</v>
@@ -6195,7 +6195,7 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="1">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B266" t="s">
         <v>264</v>
@@ -6206,7 +6206,7 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="1">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B267" t="s">
         <v>265</v>
@@ -6217,7 +6217,7 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="1">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B268" t="s">
         <v>266</v>
@@ -6228,7 +6228,7 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="1">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B269" t="s">
         <v>267</v>
@@ -6239,7 +6239,7 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="1">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B270" t="s">
         <v>268</v>
@@ -6250,7 +6250,7 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="1">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B271" t="s">
         <v>269</v>
@@ -6261,7 +6261,7 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="1">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B272" t="s">
         <v>270</v>
@@ -6272,7 +6272,7 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="1">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B273" t="s">
         <v>271</v>
@@ -6283,7 +6283,7 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="1">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B274" t="s">
         <v>128</v>
@@ -6294,7 +6294,7 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="1">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B275" t="s">
         <v>272</v>
@@ -6305,7 +6305,7 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="1">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B276" t="s">
         <v>273</v>
@@ -6316,7 +6316,7 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="1">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B277" t="s">
         <v>274</v>
@@ -6327,7 +6327,7 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="1">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B278" t="s">
         <v>275</v>
@@ -6338,7 +6338,7 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="1">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B279" t="s">
         <v>276</v>
@@ -6349,7 +6349,7 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="1">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B280" t="s">
         <v>277</v>
@@ -6360,7 +6360,7 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="1">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B281" t="s">
         <v>278</v>
@@ -6371,7 +6371,7 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="1">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B282" t="s">
         <v>279</v>
@@ -6382,7 +6382,7 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="1">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B283" t="s">
         <v>280</v>
@@ -6393,7 +6393,7 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="1">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B284" t="s">
         <v>281</v>
@@ -6404,7 +6404,7 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="1">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B285" t="s">
         <v>282</v>
@@ -6415,7 +6415,7 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="1">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B286" t="s">
         <v>283</v>
@@ -6426,7 +6426,7 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="1">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B287" t="s">
         <v>284</v>
@@ -6437,7 +6437,7 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="1">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B288" t="s">
         <v>285</v>
@@ -6448,7 +6448,7 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="1">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B289" t="s">
         <v>286</v>
@@ -6459,7 +6459,7 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="1">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B290" t="s">
         <v>287</v>
@@ -6470,7 +6470,7 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="1">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B291" t="s">
         <v>288</v>
@@ -6481,7 +6481,7 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="1">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B292" t="s">
         <v>289</v>
@@ -6492,7 +6492,7 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="1">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B293" t="s">
         <v>290</v>
@@ -6503,7 +6503,7 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="1">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B294" t="s">
         <v>291</v>
@@ -6514,7 +6514,7 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="1">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B295" t="s">
         <v>292</v>
@@ -6525,7 +6525,7 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="1">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B296" t="s">
         <v>293</v>
@@ -6536,7 +6536,7 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="1">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B297" t="s">
         <v>294</v>
@@ -6547,7 +6547,7 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="1">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B298" t="s">
         <v>295</v>
@@ -6558,7 +6558,7 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="1">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B299" t="s">
         <v>296</v>
@@ -6569,7 +6569,7 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="1">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B300" t="s">
         <v>297</v>
@@ -6580,7 +6580,7 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="1">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B301" t="s">
         <v>298</v>
@@ -6591,7 +6591,7 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="1">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B302" t="s">
         <v>299</v>
@@ -6602,7 +6602,7 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="1">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B303" t="s">
         <v>300</v>
@@ -6613,7 +6613,7 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="1">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B304" t="s">
         <v>301</v>
@@ -6624,7 +6624,7 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="1">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B305" t="s">
         <v>302</v>
@@ -6635,7 +6635,7 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="1">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B306" t="s">
         <v>303</v>
@@ -6646,7 +6646,7 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="1">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B307" t="s">
         <v>304</v>
@@ -6657,7 +6657,7 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="1">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B308" t="s">
         <v>305</v>
@@ -6668,7 +6668,7 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="1">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B309" t="s">
         <v>306</v>
@@ -6679,7 +6679,7 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="1">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B310" t="s">
         <v>307</v>
@@ -6690,7 +6690,7 @@
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="1">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B311" t="s">
         <v>308</v>
@@ -6701,7 +6701,7 @@
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="1">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B312" t="s">
         <v>309</v>
@@ -6712,7 +6712,7 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="1">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B313" t="s">
         <v>310</v>
@@ -6723,7 +6723,7 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="1">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B314" t="s">
         <v>311</v>
@@ -6734,7 +6734,7 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="1">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B315" t="s">
         <v>312</v>
@@ -6745,7 +6745,7 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="1">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B316" t="s">
         <v>313</v>
@@ -6756,7 +6756,7 @@
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="1">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B317" t="s">
         <v>314</v>
@@ -6767,7 +6767,7 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="1">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B318" t="s">
         <v>315</v>
@@ -6778,7 +6778,7 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="1">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B319" t="s">
         <v>316</v>
@@ -6789,7 +6789,7 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="1">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B320" t="s">
         <v>317</v>
@@ -6800,7 +6800,7 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="1">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B321" t="s">
         <v>318</v>
@@ -6811,7 +6811,7 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="1">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B322" t="s">
         <v>319</v>
@@ -6822,7 +6822,7 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="1">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B323" t="s">
         <v>320</v>
@@ -6833,7 +6833,7 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="1">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B324" t="s">
         <v>321</v>
@@ -6844,7 +6844,7 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="1">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B325" t="s">
         <v>322</v>
@@ -6855,7 +6855,7 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="1">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B326" t="s">
         <v>323</v>
@@ -6866,7 +6866,7 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="1">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B327" t="s">
         <v>324</v>
@@ -6877,7 +6877,7 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="1">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B328" t="s">
         <v>325</v>
@@ -6888,7 +6888,7 @@
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="1">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B329" t="s">
         <v>326</v>
@@ -6899,7 +6899,7 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="1">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B330" t="s">
         <v>327</v>
@@ -6910,7 +6910,7 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="1">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B331" t="s">
         <v>328</v>
@@ -6921,7 +6921,7 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="1">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B332" t="s">
         <v>329</v>
@@ -6932,7 +6932,7 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="1">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B333" t="s">
         <v>128</v>
@@ -6943,7 +6943,7 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="1">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B334" t="s">
         <v>330</v>
@@ -6954,7 +6954,7 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="1">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B335" t="s">
         <v>331</v>
@@ -6965,7 +6965,7 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="1">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="B336" t="s">
         <v>332</v>
@@ -6976,7 +6976,7 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="1">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B337" t="s">
         <v>333</v>
@@ -6987,7 +6987,7 @@
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="1">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B338" t="s">
         <v>334</v>
@@ -6998,7 +6998,7 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="1">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B339" t="s">
         <v>335</v>
@@ -7009,7 +7009,7 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="1">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B340" t="s">
         <v>336</v>
@@ -7020,7 +7020,7 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="1">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B341" t="s">
         <v>337</v>
@@ -7031,7 +7031,7 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="1">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B342" t="s">
         <v>338</v>
@@ -7042,7 +7042,7 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="1">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B343" t="s">
         <v>339</v>
@@ -7053,7 +7053,7 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="1">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B344" t="s">
         <v>340</v>
@@ -7064,7 +7064,7 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="1">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B345" t="s">
         <v>341</v>
@@ -7075,7 +7075,7 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="1">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B346" t="s">
         <v>342</v>
@@ -7086,7 +7086,7 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="1">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B347" t="s">
         <v>343</v>
@@ -7097,7 +7097,7 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="1">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B348" t="s">
         <v>344</v>
@@ -7108,7 +7108,7 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="1">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B349" t="s">
         <v>345</v>
@@ -7119,7 +7119,7 @@
     </row>
     <row r="350" spans="1:3">
       <c r="A350" s="1">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B350" t="s">
         <v>346</v>
@@ -7130,7 +7130,7 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="1">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B351" t="s">
         <v>347</v>
@@ -7141,7 +7141,7 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="1">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B352" t="s">
         <v>348</v>
@@ -7152,7 +7152,7 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="1">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B353" t="s">
         <v>349</v>
@@ -7163,7 +7163,7 @@
     </row>
     <row r="354" spans="1:3">
       <c r="A354" s="1">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B354" t="s">
         <v>350</v>
@@ -7174,7 +7174,7 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="1">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B355" t="s">
         <v>351</v>
@@ -7185,7 +7185,7 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="1">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B356" t="s">
         <v>352</v>
@@ -7196,7 +7196,7 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="1">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B357" t="s">
         <v>353</v>
@@ -7207,7 +7207,7 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="1">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B358" t="s">
         <v>354</v>
@@ -7218,7 +7218,7 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="1">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B359" t="s">
         <v>355</v>
@@ -7229,7 +7229,7 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="1">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B360" t="s">
         <v>356</v>
@@ -7240,7 +7240,7 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="1">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B361" t="s">
         <v>357</v>
@@ -7251,7 +7251,7 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="1">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B362" t="s">
         <v>358</v>
@@ -7262,7 +7262,7 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="1">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B363" t="s">
         <v>359</v>
@@ -7273,7 +7273,7 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="1">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B364" t="s">
         <v>360</v>
@@ -7284,7 +7284,7 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="1">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B365" t="s">
         <v>361</v>
@@ -7295,7 +7295,7 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="1">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B366" t="s">
         <v>362</v>
@@ -7306,7 +7306,7 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="1">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B367" t="s">
         <v>363</v>
@@ -7317,7 +7317,7 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="1">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B368" t="s">
         <v>364</v>
@@ -7328,7 +7328,7 @@
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="1">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B369" t="s">
         <v>365</v>
@@ -7339,7 +7339,7 @@
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="1">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B370" t="s">
         <v>366</v>
@@ -7350,7 +7350,7 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="1">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B371" t="s">
         <v>367</v>
@@ -7361,7 +7361,7 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="1">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B372" t="s">
         <v>368</v>
@@ -7372,7 +7372,7 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="1">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B373" t="s">
         <v>369</v>
@@ -7383,7 +7383,7 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="1">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B374" t="s">
         <v>370</v>
@@ -7394,7 +7394,7 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="1">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B375" t="s">
         <v>371</v>
@@ -7405,7 +7405,7 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="1">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B376" t="s">
         <v>372</v>
@@ -7416,7 +7416,7 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="1">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B377" t="s">
         <v>373</v>
@@ -7427,7 +7427,7 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="1">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B378" t="s">
         <v>374</v>
@@ -7438,7 +7438,7 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="1">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B379" t="s">
         <v>375</v>
@@ -7449,7 +7449,7 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="1">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B380" t="s">
         <v>376</v>
@@ -7460,7 +7460,7 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="1">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B381" t="s">
         <v>264</v>
@@ -7471,7 +7471,7 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="1">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B382" t="s">
         <v>377</v>
@@ -7482,7 +7482,7 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="1">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B383" t="s">
         <v>378</v>
@@ -7493,7 +7493,7 @@
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="1">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B384" t="s">
         <v>379</v>
@@ -7504,7 +7504,7 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="1">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B385" t="s">
         <v>380</v>
@@ -7515,7 +7515,7 @@
     </row>
     <row r="386" spans="1:3">
       <c r="A386" s="1">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B386" t="s">
         <v>381</v>
@@ -7526,7 +7526,7 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="1">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B387" t="s">
         <v>382</v>
@@ -7537,7 +7537,7 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="1">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B388" t="s">
         <v>383</v>
@@ -7548,7 +7548,7 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="1">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B389" t="s">
         <v>384</v>
@@ -7559,7 +7559,7 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="1">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B390" t="s">
         <v>385</v>
@@ -7570,7 +7570,7 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="1">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B391" t="s">
         <v>386</v>
@@ -7581,7 +7581,7 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="1">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B392" t="s">
         <v>387</v>
@@ -7592,7 +7592,7 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="1">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B393" t="s">
         <v>388</v>
@@ -7603,7 +7603,7 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="1">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B394" t="s">
         <v>389</v>
@@ -7614,7 +7614,7 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="1">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B395" t="s">
         <v>390</v>
@@ -7625,7 +7625,7 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="1">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="B396" t="s">
         <v>391</v>
@@ -7636,7 +7636,7 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="1">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B397" t="s">
         <v>392</v>
@@ -7647,7 +7647,7 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="1">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B398" t="s">
         <v>393</v>
@@ -7658,7 +7658,7 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="1">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="B399" t="s">
         <v>394</v>
@@ -7669,7 +7669,7 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="1">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="B400" t="s">
         <v>395</v>
@@ -7680,7 +7680,7 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="1">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B401" t="s">
         <v>396</v>
@@ -7691,7 +7691,7 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="1">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B402" t="s">
         <v>397</v>
@@ -7702,7 +7702,7 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="1">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B403" t="s">
         <v>398</v>
@@ -7713,7 +7713,7 @@
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="1">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B404" t="s">
         <v>399</v>
@@ -7724,7 +7724,7 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="1">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B405" t="s">
         <v>400</v>
@@ -7735,7 +7735,7 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="1">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B406" t="s">
         <v>401</v>
@@ -7746,7 +7746,7 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="1">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B407" t="s">
         <v>402</v>
@@ -7757,7 +7757,7 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="1">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B408" t="s">
         <v>403</v>
@@ -7768,7 +7768,7 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="1">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B409" t="s">
         <v>404</v>
@@ -7779,7 +7779,7 @@
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="1">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B410" t="s">
         <v>405</v>
@@ -7790,7 +7790,7 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="1">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B411" t="s">
         <v>406</v>
@@ -7801,7 +7801,7 @@
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="1">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="B412" t="s">
         <v>407</v>
@@ -7812,7 +7812,7 @@
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="1">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="B413" t="s">
         <v>408</v>
@@ -7823,7 +7823,7 @@
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="1">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="B414" t="s">
         <v>409</v>
@@ -7834,7 +7834,7 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="1">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="B415" t="s">
         <v>410</v>
@@ -7845,7 +7845,7 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="1">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="B416" t="s">
         <v>411</v>
@@ -7856,7 +7856,7 @@
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="1">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="B417" t="s">
         <v>412</v>
@@ -7867,7 +7867,7 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="1">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="B418" t="s">
         <v>413</v>
@@ -7878,7 +7878,7 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="1">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="B419" t="s">
         <v>414</v>
@@ -7889,7 +7889,7 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="1">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="B420" t="s">
         <v>415</v>
@@ -7900,7 +7900,7 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="1">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="B421" t="s">
         <v>416</v>
@@ -7911,7 +7911,7 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="1">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="B422" t="s">
         <v>417</v>
@@ -7922,7 +7922,7 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="1">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="B423" t="s">
         <v>418</v>
@@ -7933,7 +7933,7 @@
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="1">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="B424" t="s">
         <v>419</v>
@@ -7944,7 +7944,7 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="1">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B425" t="s">
         <v>420</v>
@@ -7955,7 +7955,7 @@
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="1">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="B426" t="s">
         <v>421</v>
@@ -7966,7 +7966,7 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="1">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="B427" t="s">
         <v>422</v>
@@ -7977,7 +7977,7 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="1">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B428" t="s">
         <v>423</v>
@@ -7988,7 +7988,7 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="1">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B429" t="s">
         <v>424</v>
@@ -7999,7 +7999,7 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="1">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="B430" t="s">
         <v>425</v>
@@ -8010,7 +8010,7 @@
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="1">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="B431" t="s">
         <v>426</v>
@@ -8021,7 +8021,7 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="1">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="B432" t="s">
         <v>427</v>
@@ -8032,7 +8032,7 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="1">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="B433" t="s">
         <v>428</v>
@@ -8043,7 +8043,7 @@
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="1">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="B434" t="s">
         <v>429</v>
@@ -8054,7 +8054,7 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="1">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B435" t="s">
         <v>430</v>
@@ -8065,7 +8065,7 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="1">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="B436" t="s">
         <v>431</v>
@@ -8076,7 +8076,7 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="1">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="B437" t="s">
         <v>432</v>
@@ -8087,7 +8087,7 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="1">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="B438" t="s">
         <v>433</v>
@@ -8098,7 +8098,7 @@
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="1">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="B439" t="s">
         <v>434</v>
@@ -8109,7 +8109,7 @@
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="1">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="B440" t="s">
         <v>435</v>
@@ -8120,7 +8120,7 @@
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="1">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="B441" t="s">
         <v>436</v>
@@ -8131,7 +8131,7 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="1">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="B442" t="s">
         <v>437</v>
@@ -8142,7 +8142,7 @@
     </row>
     <row r="443" spans="1:3">
       <c r="A443" s="1">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="B443" t="s">
         <v>438</v>
@@ -8153,7 +8153,7 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="1">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="B444" t="s">
         <v>439</v>
@@ -8164,7 +8164,7 @@
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="1">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="B445" t="s">
         <v>440</v>
@@ -8175,7 +8175,7 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="1">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="B446" t="s">
         <v>441</v>
@@ -8186,7 +8186,7 @@
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="1">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="B447" t="s">
         <v>442</v>
@@ -8197,7 +8197,7 @@
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="1">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B448" t="s">
         <v>82</v>
@@ -8208,7 +8208,7 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="1">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="B449" t="s">
         <v>443</v>
@@ -8219,7 +8219,7 @@
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="1">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="B450" t="s">
         <v>444</v>
@@ -8230,7 +8230,7 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="1">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="B451" t="s">
         <v>445</v>
@@ -8241,7 +8241,7 @@
     </row>
     <row r="452" spans="1:3">
       <c r="A452" s="1">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="B452" t="s">
         <v>446</v>
@@ -8252,7 +8252,7 @@
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="1">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="B453" t="s">
         <v>447</v>
@@ -8263,7 +8263,7 @@
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="1">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="B454" t="s">
         <v>448</v>
@@ -8274,7 +8274,7 @@
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="1">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="B455" t="s">
         <v>449</v>
@@ -8285,7 +8285,7 @@
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="1">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="B456" t="s">
         <v>450</v>
@@ -8296,7 +8296,7 @@
     </row>
     <row r="457" spans="1:3">
       <c r="A457" s="1">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="B457" t="s">
         <v>451</v>
@@ -8307,7 +8307,7 @@
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="1">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="B458" t="s">
         <v>452</v>
@@ -8318,7 +8318,7 @@
     </row>
     <row r="459" spans="1:3">
       <c r="A459" s="1">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="B459" t="s">
         <v>453</v>
@@ -8329,7 +8329,7 @@
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="1">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="B460" t="s">
         <v>454</v>
@@ -8340,7 +8340,7 @@
     </row>
     <row r="461" spans="1:3">
       <c r="A461" s="1">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="B461" t="s">
         <v>455</v>
@@ -8351,7 +8351,7 @@
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="1">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="B462" t="s">
         <v>456</v>
@@ -8362,7 +8362,7 @@
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="1">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="B463" t="s">
         <v>457</v>
@@ -8373,7 +8373,7 @@
     </row>
     <row r="464" spans="1:3">
       <c r="A464" s="1">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="B464" t="s">
         <v>458</v>
@@ -8384,7 +8384,7 @@
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="1">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="B465" t="s">
         <v>459</v>
@@ -8395,7 +8395,7 @@
     </row>
     <row r="466" spans="1:3">
       <c r="A466" s="1">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="B466" t="s">
         <v>460</v>
@@ -8406,7 +8406,7 @@
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="1">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="B467" t="s">
         <v>461</v>
@@ -8417,7 +8417,7 @@
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="1">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="B468" t="s">
         <v>462</v>
@@ -8428,7 +8428,7 @@
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="1">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="B469" t="s">
         <v>463</v>
@@ -8439,7 +8439,7 @@
     </row>
     <row r="470" spans="1:3">
       <c r="A470" s="1">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="B470" t="s">
         <v>464</v>
@@ -8450,7 +8450,7 @@
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="1">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="B471" t="s">
         <v>465</v>
@@ -8461,7 +8461,7 @@
     </row>
     <row r="472" spans="1:3">
       <c r="A472" s="1">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="B472" t="s">
         <v>466</v>
@@ -8472,7 +8472,7 @@
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="1">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="B473" t="s">
         <v>467</v>
@@ -8483,7 +8483,7 @@
     </row>
     <row r="474" spans="1:3">
       <c r="A474" s="1">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="B474" t="s">
         <v>468</v>
@@ -8494,7 +8494,7 @@
     </row>
     <row r="475" spans="1:3">
       <c r="A475" s="1">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="B475" t="s">
         <v>469</v>
@@ -8505,7 +8505,7 @@
     </row>
     <row r="476" spans="1:3">
       <c r="A476" s="1">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="B476" t="s">
         <v>470</v>
@@ -8516,7 +8516,7 @@
     </row>
     <row r="477" spans="1:3">
       <c r="A477" s="1">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="B477" t="s">
         <v>471</v>
@@ -8527,7 +8527,7 @@
     </row>
     <row r="478" spans="1:3">
       <c r="A478" s="1">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="B478" t="s">
         <v>472</v>
@@ -8538,7 +8538,7 @@
     </row>
     <row r="479" spans="1:3">
       <c r="A479" s="1">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="B479" t="s">
         <v>473</v>
@@ -8549,7 +8549,7 @@
     </row>
     <row r="480" spans="1:3">
       <c r="A480" s="1">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="B480" t="s">
         <v>474</v>
@@ -8560,7 +8560,7 @@
     </row>
     <row r="481" spans="1:3">
       <c r="A481" s="1">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="B481" t="s">
         <v>475</v>
@@ -8571,7 +8571,7 @@
     </row>
     <row r="482" spans="1:3">
       <c r="A482" s="1">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="B482" t="s">
         <v>476</v>
@@ -8582,7 +8582,7 @@
     </row>
     <row r="483" spans="1:3">
       <c r="A483" s="1">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="B483" t="s">
         <v>477</v>
@@ -8593,7 +8593,7 @@
     </row>
     <row r="484" spans="1:3">
       <c r="A484" s="1">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="B484" t="s">
         <v>478</v>
@@ -8604,7 +8604,7 @@
     </row>
     <row r="485" spans="1:3">
       <c r="A485" s="1">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="B485" t="s">
         <v>479</v>
@@ -8615,7 +8615,7 @@
     </row>
     <row r="486" spans="1:3">
       <c r="A486" s="1">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="B486" t="s">
         <v>480</v>
@@ -8626,7 +8626,7 @@
     </row>
     <row r="487" spans="1:3">
       <c r="A487" s="1">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="B487" t="s">
         <v>481</v>
@@ -8637,7 +8637,7 @@
     </row>
     <row r="488" spans="1:3">
       <c r="A488" s="1">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="B488" t="s">
         <v>482</v>
@@ -8648,7 +8648,7 @@
     </row>
     <row r="489" spans="1:3">
       <c r="A489" s="1">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="B489" t="s">
         <v>483</v>
@@ -8659,7 +8659,7 @@
     </row>
     <row r="490" spans="1:3">
       <c r="A490" s="1">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="B490" t="s">
         <v>484</v>
@@ -8670,7 +8670,7 @@
     </row>
     <row r="491" spans="1:3">
       <c r="A491" s="1">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="B491" t="s">
         <v>485</v>
@@ -8681,7 +8681,7 @@
     </row>
     <row r="492" spans="1:3">
       <c r="A492" s="1">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="B492" t="s">
         <v>486</v>
@@ -8692,7 +8692,7 @@
     </row>
     <row r="493" spans="1:3">
       <c r="A493" s="1">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="B493" t="s">
         <v>487</v>
@@ -8703,7 +8703,7 @@
     </row>
     <row r="494" spans="1:3">
       <c r="A494" s="1">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="B494" t="s">
         <v>488</v>
@@ -8714,7 +8714,7 @@
     </row>
     <row r="495" spans="1:3">
       <c r="A495" s="1">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="B495" t="s">
         <v>489</v>
@@ -8725,7 +8725,7 @@
     </row>
     <row r="496" spans="1:3">
       <c r="A496" s="1">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="B496" t="s">
         <v>490</v>
@@ -8736,7 +8736,7 @@
     </row>
     <row r="497" spans="1:3">
       <c r="A497" s="1">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="B497" t="s">
         <v>491</v>
@@ -8747,7 +8747,7 @@
     </row>
     <row r="498" spans="1:3">
       <c r="A498" s="1">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="B498" t="s">
         <v>492</v>
@@ -8758,7 +8758,7 @@
     </row>
     <row r="499" spans="1:3">
       <c r="A499" s="1">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="B499" t="s">
         <v>493</v>
@@ -8769,7 +8769,7 @@
     </row>
     <row r="500" spans="1:3">
       <c r="A500" s="1">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="B500" t="s">
         <v>494</v>
@@ -8780,7 +8780,7 @@
     </row>
     <row r="501" spans="1:3">
       <c r="A501" s="1">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="B501" t="s">
         <v>495</v>
@@ -8791,7 +8791,7 @@
     </row>
     <row r="502" spans="1:3">
       <c r="A502" s="1">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="B502" t="s">
         <v>496</v>
@@ -8802,7 +8802,7 @@
     </row>
     <row r="503" spans="1:3">
       <c r="A503" s="1">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="B503" t="s">
         <v>497</v>
@@ -8813,7 +8813,7 @@
     </row>
     <row r="504" spans="1:3">
       <c r="A504" s="1">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="B504" t="s">
         <v>498</v>
@@ -8824,7 +8824,7 @@
     </row>
     <row r="505" spans="1:3">
       <c r="A505" s="1">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="B505" t="s">
         <v>499</v>
@@ -8835,7 +8835,7 @@
     </row>
     <row r="506" spans="1:3">
       <c r="A506" s="1">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="B506" t="s">
         <v>500</v>
@@ -8846,7 +8846,7 @@
     </row>
     <row r="507" spans="1:3">
       <c r="A507" s="1">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="B507" t="s">
         <v>501</v>
@@ -8857,7 +8857,7 @@
     </row>
     <row r="508" spans="1:3">
       <c r="A508" s="1">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="B508" t="s">
         <v>502</v>
@@ -8868,7 +8868,7 @@
     </row>
     <row r="509" spans="1:3">
       <c r="A509" s="1">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="B509" t="s">
         <v>503</v>
@@ -8879,7 +8879,7 @@
     </row>
     <row r="510" spans="1:3">
       <c r="A510" s="1">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="B510" t="s">
         <v>504</v>
@@ -8890,7 +8890,7 @@
     </row>
     <row r="511" spans="1:3">
       <c r="A511" s="1">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="B511" t="s">
         <v>505</v>
@@ -8901,7 +8901,7 @@
     </row>
     <row r="512" spans="1:3">
       <c r="A512" s="1">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B512" t="s">
         <v>506</v>
@@ -8912,7 +8912,7 @@
     </row>
     <row r="513" spans="1:3">
       <c r="A513" s="1">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="B513" t="s">
         <v>507</v>
@@ -8923,7 +8923,7 @@
     </row>
     <row r="514" spans="1:3">
       <c r="A514" s="1">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="B514" t="s">
         <v>508</v>
@@ -8934,7 +8934,7 @@
     </row>
     <row r="515" spans="1:3">
       <c r="A515" s="1">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="B515" t="s">
         <v>509</v>
@@ -8945,7 +8945,7 @@
     </row>
     <row r="516" spans="1:3">
       <c r="A516" s="1">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="B516" t="s">
         <v>510</v>
@@ -8956,7 +8956,7 @@
     </row>
     <row r="517" spans="1:3">
       <c r="A517" s="1">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="B517" t="s">
         <v>511</v>
@@ -8967,7 +8967,7 @@
     </row>
     <row r="518" spans="1:3">
       <c r="A518" s="1">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="B518" t="s">
         <v>512</v>
@@ -8978,7 +8978,7 @@
     </row>
     <row r="519" spans="1:3">
       <c r="A519" s="1">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="B519" t="s">
         <v>513</v>
@@ -8989,7 +8989,7 @@
     </row>
     <row r="520" spans="1:3">
       <c r="A520" s="1">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="B520" t="s">
         <v>514</v>
@@ -9000,7 +9000,7 @@
     </row>
     <row r="521" spans="1:3">
       <c r="A521" s="1">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="B521" t="s">
         <v>515</v>
@@ -9011,7 +9011,7 @@
     </row>
     <row r="522" spans="1:3">
       <c r="A522" s="1">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="B522" t="s">
         <v>516</v>
@@ -9022,7 +9022,7 @@
     </row>
     <row r="523" spans="1:3">
       <c r="A523" s="1">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="B523" t="s">
         <v>517</v>
@@ -9033,7 +9033,7 @@
     </row>
     <row r="524" spans="1:3">
       <c r="A524" s="1">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="B524" t="s">
         <v>518</v>
@@ -9044,7 +9044,7 @@
     </row>
     <row r="525" spans="1:3">
       <c r="A525" s="1">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="B525" t="s">
         <v>519</v>
@@ -9055,7 +9055,7 @@
     </row>
     <row r="526" spans="1:3">
       <c r="A526" s="1">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="B526" t="s">
         <v>520</v>
@@ -9066,7 +9066,7 @@
     </row>
     <row r="527" spans="1:3">
       <c r="A527" s="1">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="B527" t="s">
         <v>521</v>
@@ -9077,7 +9077,7 @@
     </row>
     <row r="528" spans="1:3">
       <c r="A528" s="1">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="B528" t="s">
         <v>522</v>
@@ -9088,7 +9088,7 @@
     </row>
     <row r="529" spans="1:3">
       <c r="A529" s="1">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="B529" t="s">
         <v>523</v>
@@ -9099,7 +9099,7 @@
     </row>
     <row r="530" spans="1:3">
       <c r="A530" s="1">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="B530" t="s">
         <v>524</v>
@@ -9110,7 +9110,7 @@
     </row>
     <row r="531" spans="1:3">
       <c r="A531" s="1">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="B531" t="s">
         <v>525</v>
@@ -9121,7 +9121,7 @@
     </row>
     <row r="532" spans="1:3">
       <c r="A532" s="1">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="B532" t="s">
         <v>526</v>
@@ -9132,7 +9132,7 @@
     </row>
     <row r="533" spans="1:3">
       <c r="A533" s="1">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="B533" t="s">
         <v>527</v>
@@ -9143,7 +9143,7 @@
     </row>
     <row r="534" spans="1:3">
       <c r="A534" s="1">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="B534" t="s">
         <v>528</v>
@@ -9154,7 +9154,7 @@
     </row>
     <row r="535" spans="1:3">
       <c r="A535" s="1">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="B535" t="s">
         <v>529</v>
@@ -9165,7 +9165,7 @@
     </row>
     <row r="536" spans="1:3">
       <c r="A536" s="1">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="B536" t="s">
         <v>530</v>
@@ -9176,7 +9176,7 @@
     </row>
     <row r="537" spans="1:3">
       <c r="A537" s="1">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="B537" t="s">
         <v>531</v>
@@ -9187,7 +9187,7 @@
     </row>
     <row r="538" spans="1:3">
       <c r="A538" s="1">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="B538" t="s">
         <v>532</v>
@@ -9198,7 +9198,7 @@
     </row>
     <row r="539" spans="1:3">
       <c r="A539" s="1">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="B539" t="s">
         <v>533</v>
@@ -9209,7 +9209,7 @@
     </row>
     <row r="540" spans="1:3">
       <c r="A540" s="1">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="B540" t="s">
         <v>534</v>
@@ -9220,7 +9220,7 @@
     </row>
     <row r="541" spans="1:3">
       <c r="A541" s="1">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="B541" t="s">
         <v>535</v>
@@ -9231,7 +9231,7 @@
     </row>
     <row r="542" spans="1:3">
       <c r="A542" s="1">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="B542" t="s">
         <v>536</v>
@@ -9242,7 +9242,7 @@
     </row>
     <row r="543" spans="1:3">
       <c r="A543" s="1">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="B543" t="s">
         <v>537</v>
@@ -9253,7 +9253,7 @@
     </row>
     <row r="544" spans="1:3">
       <c r="A544" s="1">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="B544" t="s">
         <v>538</v>
@@ -9264,7 +9264,7 @@
     </row>
     <row r="545" spans="1:3">
       <c r="A545" s="1">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="B545" t="s">
         <v>539</v>
@@ -9275,7 +9275,7 @@
     </row>
     <row r="546" spans="1:3">
       <c r="A546" s="1">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="B546" t="s">
         <v>540</v>
@@ -9286,7 +9286,7 @@
     </row>
     <row r="547" spans="1:3">
       <c r="A547" s="1">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="B547" t="s">
         <v>541</v>
@@ -9297,7 +9297,7 @@
     </row>
     <row r="548" spans="1:3">
       <c r="A548" s="1">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="B548" t="s">
         <v>542</v>
@@ -9308,7 +9308,7 @@
     </row>
     <row r="549" spans="1:3">
       <c r="A549" s="1">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="B549" t="s">
         <v>543</v>
@@ -9319,7 +9319,7 @@
     </row>
     <row r="550" spans="1:3">
       <c r="A550" s="1">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="B550" t="s">
         <v>544</v>
@@ -9330,7 +9330,7 @@
     </row>
     <row r="551" spans="1:3">
       <c r="A551" s="1">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="B551" t="s">
         <v>545</v>
@@ -9341,7 +9341,7 @@
     </row>
     <row r="552" spans="1:3">
       <c r="A552" s="1">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="B552" t="s">
         <v>546</v>
@@ -9352,7 +9352,7 @@
     </row>
     <row r="553" spans="1:3">
       <c r="A553" s="1">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="B553" t="s">
         <v>547</v>
@@ -9363,7 +9363,7 @@
     </row>
     <row r="554" spans="1:3">
       <c r="A554" s="1">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="B554" t="s">
         <v>548</v>
@@ -9374,7 +9374,7 @@
     </row>
     <row r="555" spans="1:3">
       <c r="A555" s="1">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="B555" t="s">
         <v>549</v>
@@ -9385,7 +9385,7 @@
     </row>
     <row r="556" spans="1:3">
       <c r="A556" s="1">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="B556" t="s">
         <v>550</v>
@@ -9396,7 +9396,7 @@
     </row>
     <row r="557" spans="1:3">
       <c r="A557" s="1">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="B557" t="s">
         <v>551</v>
@@ -9407,7 +9407,7 @@
     </row>
     <row r="558" spans="1:3">
       <c r="A558" s="1">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="B558" t="s">
         <v>552</v>
@@ -9418,7 +9418,7 @@
     </row>
     <row r="559" spans="1:3">
       <c r="A559" s="1">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="B559" t="s">
         <v>553</v>
@@ -9429,7 +9429,7 @@
     </row>
     <row r="560" spans="1:3">
       <c r="A560" s="1">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="B560" t="s">
         <v>554</v>
@@ -9440,7 +9440,7 @@
     </row>
     <row r="561" spans="1:3">
       <c r="A561" s="1">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="B561" t="s">
         <v>555</v>
@@ -9451,7 +9451,7 @@
     </row>
     <row r="562" spans="1:3">
       <c r="A562" s="1">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="B562" t="s">
         <v>556</v>
@@ -9462,7 +9462,7 @@
     </row>
     <row r="563" spans="1:3">
       <c r="A563" s="1">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="B563" t="s">
         <v>557</v>
@@ -9473,7 +9473,7 @@
     </row>
     <row r="564" spans="1:3">
       <c r="A564" s="1">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="B564" t="s">
         <v>558</v>
@@ -9484,7 +9484,7 @@
     </row>
     <row r="565" spans="1:3">
       <c r="A565" s="1">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="B565" t="s">
         <v>559</v>
@@ -9495,7 +9495,7 @@
     </row>
     <row r="566" spans="1:3">
       <c r="A566" s="1">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="B566" t="s">
         <v>560</v>
@@ -9506,7 +9506,7 @@
     </row>
     <row r="567" spans="1:3">
       <c r="A567" s="1">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="B567" t="s">
         <v>561</v>
@@ -9517,7 +9517,7 @@
     </row>
     <row r="568" spans="1:3">
       <c r="A568" s="1">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="B568" t="s">
         <v>562</v>
@@ -9528,7 +9528,7 @@
     </row>
     <row r="569" spans="1:3">
       <c r="A569" s="1">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="B569" t="s">
         <v>563</v>
@@ -9539,7 +9539,7 @@
     </row>
     <row r="570" spans="1:3">
       <c r="A570" s="1">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="B570" t="s">
         <v>564</v>
@@ -9550,7 +9550,7 @@
     </row>
     <row r="571" spans="1:3">
       <c r="A571" s="1">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="B571" t="s">
         <v>565</v>
@@ -9561,7 +9561,7 @@
     </row>
     <row r="572" spans="1:3">
       <c r="A572" s="1">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="B572" t="s">
         <v>566</v>
@@ -9572,7 +9572,7 @@
     </row>
     <row r="573" spans="1:3">
       <c r="A573" s="1">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="B573" t="s">
         <v>567</v>
@@ -9583,7 +9583,7 @@
     </row>
     <row r="574" spans="1:3">
       <c r="A574" s="1">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="B574" t="s">
         <v>568</v>
@@ -9594,7 +9594,7 @@
     </row>
     <row r="575" spans="1:3">
       <c r="A575" s="1">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="B575" t="s">
         <v>569</v>
@@ -9605,7 +9605,7 @@
     </row>
     <row r="576" spans="1:3">
       <c r="A576" s="1">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="B576" t="s">
         <v>570</v>
@@ -9616,7 +9616,7 @@
     </row>
     <row r="577" spans="1:3">
       <c r="A577" s="1">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="B577" t="s">
         <v>571</v>
@@ -9627,7 +9627,7 @@
     </row>
     <row r="578" spans="1:3">
       <c r="A578" s="1">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="B578" t="s">
         <v>572</v>
@@ -9638,7 +9638,7 @@
     </row>
     <row r="579" spans="1:3">
       <c r="A579" s="1">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="B579" t="s">
         <v>573</v>
@@ -9649,7 +9649,7 @@
     </row>
     <row r="580" spans="1:3">
       <c r="A580" s="1">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="B580" t="s">
         <v>574</v>
@@ -9660,7 +9660,7 @@
     </row>
     <row r="581" spans="1:3">
       <c r="A581" s="1">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="B581" t="s">
         <v>575</v>
@@ -9671,7 +9671,7 @@
     </row>
     <row r="582" spans="1:3">
       <c r="A582" s="1">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="B582" t="s">
         <v>576</v>
@@ -9682,7 +9682,7 @@
     </row>
     <row r="583" spans="1:3">
       <c r="A583" s="1">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="B583" t="s">
         <v>577</v>
@@ -9693,7 +9693,7 @@
     </row>
     <row r="584" spans="1:3">
       <c r="A584" s="1">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="B584" t="s">
         <v>578</v>
@@ -9704,7 +9704,7 @@
     </row>
     <row r="585" spans="1:3">
       <c r="A585" s="1">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="B585" t="s">
         <v>579</v>
@@ -9715,7 +9715,7 @@
     </row>
     <row r="586" spans="1:3">
       <c r="A586" s="1">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="B586" t="s">
         <v>580</v>
@@ -9726,7 +9726,7 @@
     </row>
     <row r="587" spans="1:3">
       <c r="A587" s="1">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="B587" t="s">
         <v>581</v>
@@ -9737,7 +9737,7 @@
     </row>
     <row r="588" spans="1:3">
       <c r="A588" s="1">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="B588" t="s">
         <v>582</v>
@@ -9748,7 +9748,7 @@
     </row>
     <row r="589" spans="1:3">
       <c r="A589" s="1">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="B589" t="s">
         <v>583</v>
@@ -9759,7 +9759,7 @@
     </row>
     <row r="590" spans="1:3">
       <c r="A590" s="1">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="B590" t="s">
         <v>584</v>
@@ -9770,7 +9770,7 @@
     </row>
     <row r="591" spans="1:3">
       <c r="A591" s="1">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="B591" t="s">
         <v>585</v>
@@ -9781,7 +9781,7 @@
     </row>
     <row r="592" spans="1:3">
       <c r="A592" s="1">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="B592" t="s">
         <v>586</v>
@@ -9792,7 +9792,7 @@
     </row>
     <row r="593" spans="1:3">
       <c r="A593" s="1">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="B593" t="s">
         <v>587</v>
@@ -9803,7 +9803,7 @@
     </row>
     <row r="594" spans="1:3">
       <c r="A594" s="1">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="B594" t="s">
         <v>588</v>
@@ -9814,7 +9814,7 @@
     </row>
     <row r="595" spans="1:3">
       <c r="A595" s="1">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="B595" t="s">
         <v>589</v>
@@ -9825,7 +9825,7 @@
     </row>
     <row r="596" spans="1:3">
       <c r="A596" s="1">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="B596" t="s">
         <v>590</v>
@@ -9836,7 +9836,7 @@
     </row>
     <row r="597" spans="1:3">
       <c r="A597" s="1">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="B597" t="s">
         <v>591</v>
@@ -9847,7 +9847,7 @@
     </row>
     <row r="598" spans="1:3">
       <c r="A598" s="1">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="B598" t="s">
         <v>592</v>
@@ -9858,7 +9858,7 @@
     </row>
     <row r="599" spans="1:3">
       <c r="A599" s="1">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="B599" t="s">
         <v>593</v>
@@ -9869,7 +9869,7 @@
     </row>
     <row r="600" spans="1:3">
       <c r="A600" s="1">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="B600" t="s">
         <v>594</v>
@@ -9880,7 +9880,7 @@
     </row>
     <row r="601" spans="1:3">
       <c r="A601" s="1">
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="B601" t="s">
         <v>595</v>
@@ -9891,7 +9891,7 @@
     </row>
     <row r="602" spans="1:3">
       <c r="A602" s="1">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="B602" t="s">
         <v>596</v>
@@ -9902,7 +9902,7 @@
     </row>
     <row r="603" spans="1:3">
       <c r="A603" s="1">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="B603" t="s">
         <v>597</v>
@@ -9913,7 +9913,7 @@
     </row>
     <row r="604" spans="1:3">
       <c r="A604" s="1">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="B604" t="s">
         <v>598</v>
@@ -9924,7 +9924,7 @@
     </row>
     <row r="605" spans="1:3">
       <c r="A605" s="1">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="B605" t="s">
         <v>599</v>
@@ -9935,7 +9935,7 @@
     </row>
     <row r="606" spans="1:3">
       <c r="A606" s="1">
-        <v>619</v>
+        <v>604</v>
       </c>
       <c r="B606" t="s">
         <v>600</v>
@@ -9946,7 +9946,7 @@
     </row>
     <row r="607" spans="1:3">
       <c r="A607" s="1">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="B607" t="s">
         <v>601</v>
@@ -9957,7 +9957,7 @@
     </row>
     <row r="608" spans="1:3">
       <c r="A608" s="1">
-        <v>621</v>
+        <v>606</v>
       </c>
       <c r="B608" t="s">
         <v>602</v>
@@ -9968,7 +9968,7 @@
     </row>
     <row r="609" spans="1:3">
       <c r="A609" s="1">
-        <v>622</v>
+        <v>607</v>
       </c>
       <c r="B609" t="s">
         <v>603</v>
@@ -9979,7 +9979,7 @@
     </row>
     <row r="610" spans="1:3">
       <c r="A610" s="1">
-        <v>623</v>
+        <v>608</v>
       </c>
       <c r="B610" t="s">
         <v>604</v>
@@ -9990,7 +9990,7 @@
     </row>
     <row r="611" spans="1:3">
       <c r="A611" s="1">
-        <v>624</v>
+        <v>609</v>
       </c>
       <c r="B611" t="s">
         <v>605</v>
@@ -10001,7 +10001,7 @@
     </row>
     <row r="612" spans="1:3">
       <c r="A612" s="1">
-        <v>625</v>
+        <v>610</v>
       </c>
       <c r="B612" t="s">
         <v>606</v>
@@ -10012,7 +10012,7 @@
     </row>
     <row r="613" spans="1:3">
       <c r="A613" s="1">
-        <v>626</v>
+        <v>611</v>
       </c>
       <c r="B613" t="s">
         <v>607</v>
@@ -10023,7 +10023,7 @@
     </row>
     <row r="614" spans="1:3">
       <c r="A614" s="1">
-        <v>627</v>
+        <v>612</v>
       </c>
       <c r="B614" t="s">
         <v>608</v>
@@ -10034,7 +10034,7 @@
     </row>
     <row r="615" spans="1:3">
       <c r="A615" s="1">
-        <v>628</v>
+        <v>613</v>
       </c>
       <c r="B615" t="s">
         <v>456</v>
@@ -10045,7 +10045,7 @@
     </row>
     <row r="616" spans="1:3">
       <c r="A616" s="1">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="B616" t="s">
         <v>609</v>
@@ -10056,7 +10056,7 @@
     </row>
     <row r="617" spans="1:3">
       <c r="A617" s="1">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="B617" t="s">
         <v>610</v>
@@ -10067,7 +10067,7 @@
     </row>
     <row r="618" spans="1:3">
       <c r="A618" s="1">
-        <v>631</v>
+        <v>616</v>
       </c>
       <c r="B618" t="s">
         <v>611</v>
@@ -10078,7 +10078,7 @@
     </row>
     <row r="619" spans="1:3">
       <c r="A619" s="1">
-        <v>632</v>
+        <v>617</v>
       </c>
       <c r="B619" t="s">
         <v>612</v>
@@ -10089,7 +10089,7 @@
     </row>
     <row r="620" spans="1:3">
       <c r="A620" s="1">
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="B620" t="s">
         <v>613</v>
@@ -10100,7 +10100,7 @@
     </row>
     <row r="621" spans="1:3">
       <c r="A621" s="1">
-        <v>634</v>
+        <v>619</v>
       </c>
       <c r="B621" t="s">
         <v>614</v>
@@ -10111,7 +10111,7 @@
     </row>
     <row r="622" spans="1:3">
       <c r="A622" s="1">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="B622" t="s">
         <v>67</v>
@@ -10122,7 +10122,7 @@
     </row>
     <row r="623" spans="1:3">
       <c r="A623" s="1">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="B623" t="s">
         <v>615</v>
@@ -10133,7 +10133,7 @@
     </row>
     <row r="624" spans="1:3">
       <c r="A624" s="1">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="B624" t="s">
         <v>616</v>
@@ -10144,7 +10144,7 @@
     </row>
     <row r="625" spans="1:3">
       <c r="A625" s="1">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="B625" t="s">
         <v>617</v>
@@ -10155,7 +10155,7 @@
     </row>
     <row r="626" spans="1:3">
       <c r="A626" s="1">
-        <v>639</v>
+        <v>624</v>
       </c>
       <c r="B626" t="s">
         <v>618</v>
@@ -10166,7 +10166,7 @@
     </row>
     <row r="627" spans="1:3">
       <c r="A627" s="1">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="B627" t="s">
         <v>619</v>
@@ -10177,7 +10177,7 @@
     </row>
     <row r="628" spans="1:3">
       <c r="A628" s="1">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="B628" t="s">
         <v>620</v>
@@ -10188,7 +10188,7 @@
     </row>
     <row r="629" spans="1:3">
       <c r="A629" s="1">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="B629" t="s">
         <v>621</v>
@@ -10199,7 +10199,7 @@
     </row>
     <row r="630" spans="1:3">
       <c r="A630" s="1">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="B630" t="s">
         <v>622</v>
@@ -10210,7 +10210,7 @@
     </row>
     <row r="631" spans="1:3">
       <c r="A631" s="1">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="B631" t="s">
         <v>623</v>
@@ -10221,7 +10221,7 @@
     </row>
     <row r="632" spans="1:3">
       <c r="A632" s="1">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="B632" t="s">
         <v>624</v>
@@ -10232,7 +10232,7 @@
     </row>
     <row r="633" spans="1:3">
       <c r="A633" s="1">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="B633" t="s">
         <v>625</v>
@@ -10243,7 +10243,7 @@
     </row>
     <row r="634" spans="1:3">
       <c r="A634" s="1">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="B634" t="s">
         <v>626</v>
@@ -10254,7 +10254,7 @@
     </row>
     <row r="635" spans="1:3">
       <c r="A635" s="1">
-        <v>648</v>
+        <v>633</v>
       </c>
       <c r="B635" t="s">
         <v>627</v>
@@ -10265,7 +10265,7 @@
     </row>
     <row r="636" spans="1:3">
       <c r="A636" s="1">
-        <v>649</v>
+        <v>634</v>
       </c>
       <c r="B636" t="s">
         <v>628</v>
@@ -10276,7 +10276,7 @@
     </row>
     <row r="637" spans="1:3">
       <c r="A637" s="1">
-        <v>650</v>
+        <v>635</v>
       </c>
       <c r="B637" t="s">
         <v>629</v>
@@ -10287,7 +10287,7 @@
     </row>
     <row r="638" spans="1:3">
       <c r="A638" s="1">
-        <v>651</v>
+        <v>636</v>
       </c>
       <c r="B638" t="s">
         <v>630</v>
@@ -10298,7 +10298,7 @@
     </row>
     <row r="639" spans="1:3">
       <c r="A639" s="1">
-        <v>652</v>
+        <v>637</v>
       </c>
       <c r="B639" t="s">
         <v>631</v>
@@ -10309,7 +10309,7 @@
     </row>
     <row r="640" spans="1:3">
       <c r="A640" s="1">
-        <v>653</v>
+        <v>638</v>
       </c>
       <c r="B640" t="s">
         <v>632</v>
@@ -10320,7 +10320,7 @@
     </row>
     <row r="641" spans="1:3">
       <c r="A641" s="1">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="B641" t="s">
         <v>633</v>
@@ -10331,7 +10331,7 @@
     </row>
     <row r="642" spans="1:3">
       <c r="A642" s="1">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="B642" t="s">
         <v>634</v>
@@ -10342,7 +10342,7 @@
     </row>
     <row r="643" spans="1:3">
       <c r="A643" s="1">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="B643" t="s">
         <v>635</v>
@@ -10353,7 +10353,7 @@
     </row>
     <row r="644" spans="1:3">
       <c r="A644" s="1">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="B644" t="s">
         <v>636</v>
@@ -10364,7 +10364,7 @@
     </row>
     <row r="645" spans="1:3">
       <c r="A645" s="1">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="B645" t="s">
         <v>637</v>
@@ -10375,7 +10375,7 @@
     </row>
     <row r="646" spans="1:3">
       <c r="A646" s="1">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="B646" t="s">
         <v>638</v>
@@ -10386,7 +10386,7 @@
     </row>
     <row r="647" spans="1:3">
       <c r="A647" s="1">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="B647" t="s">
         <v>639</v>
@@ -10397,7 +10397,7 @@
     </row>
     <row r="648" spans="1:3">
       <c r="A648" s="1">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="B648" t="s">
         <v>640</v>
@@ -10408,7 +10408,7 @@
     </row>
     <row r="649" spans="1:3">
       <c r="A649" s="1">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="B649" t="s">
         <v>641</v>
@@ -10419,7 +10419,7 @@
     </row>
     <row r="650" spans="1:3">
       <c r="A650" s="1">
-        <v>664</v>
+        <v>648</v>
       </c>
       <c r="B650" t="s">
         <v>642</v>
@@ -10430,7 +10430,7 @@
     </row>
     <row r="651" spans="1:3">
       <c r="A651" s="1">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="B651" t="s">
         <v>643</v>
@@ -10441,7 +10441,7 @@
     </row>
     <row r="652" spans="1:3">
       <c r="A652" s="1">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="B652" t="s">
         <v>644</v>
@@ -10452,7 +10452,7 @@
     </row>
     <row r="653" spans="1:3">
       <c r="A653" s="1">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="B653" t="s">
         <v>645</v>
@@ -10463,7 +10463,7 @@
     </row>
     <row r="654" spans="1:3">
       <c r="A654" s="1">
-        <v>668</v>
+        <v>652</v>
       </c>
       <c r="B654" t="s">
         <v>646</v>
@@ -10474,7 +10474,7 @@
     </row>
     <row r="655" spans="1:3">
       <c r="A655" s="1">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="B655" t="s">
         <v>647</v>
@@ -10485,7 +10485,7 @@
     </row>
     <row r="656" spans="1:3">
       <c r="A656" s="1">
-        <v>670</v>
+        <v>654</v>
       </c>
       <c r="B656" t="s">
         <v>648</v>
@@ -10496,7 +10496,7 @@
     </row>
     <row r="657" spans="1:3">
       <c r="A657" s="1">
-        <v>671</v>
+        <v>655</v>
       </c>
       <c r="B657" t="s">
         <v>649</v>
@@ -10507,7 +10507,7 @@
     </row>
     <row r="658" spans="1:3">
       <c r="A658" s="1">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="B658" t="s">
         <v>650</v>
@@ -10518,7 +10518,7 @@
     </row>
     <row r="659" spans="1:3">
       <c r="A659" s="1">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="B659" t="s">
         <v>651</v>
@@ -10529,7 +10529,7 @@
     </row>
     <row r="660" spans="1:3">
       <c r="A660" s="1">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="B660" t="s">
         <v>652</v>
@@ -10540,7 +10540,7 @@
     </row>
     <row r="661" spans="1:3">
       <c r="A661" s="1">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="B661" t="s">
         <v>653</v>
@@ -10551,7 +10551,7 @@
     </row>
     <row r="662" spans="1:3">
       <c r="A662" s="1">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="B662" t="s">
         <v>654</v>
@@ -10562,7 +10562,7 @@
     </row>
     <row r="663" spans="1:3">
       <c r="A663" s="1">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="B663" t="s">
         <v>655</v>
@@ -10573,7 +10573,7 @@
     </row>
     <row r="664" spans="1:3">
       <c r="A664" s="1">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="B664" t="s">
         <v>656</v>
@@ -10584,7 +10584,7 @@
     </row>
     <row r="665" spans="1:3">
       <c r="A665" s="1">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="B665" t="s">
         <v>657</v>
@@ -10595,7 +10595,7 @@
     </row>
     <row r="666" spans="1:3">
       <c r="A666" s="1">
-        <v>680</v>
+        <v>664</v>
       </c>
       <c r="B666" t="s">
         <v>658</v>
@@ -10606,7 +10606,7 @@
     </row>
     <row r="667" spans="1:3">
       <c r="A667" s="1">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="B667" t="s">
         <v>659</v>
@@ -10617,7 +10617,7 @@
     </row>
     <row r="668" spans="1:3">
       <c r="A668" s="1">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="B668" t="s">
         <v>660</v>
@@ -10628,7 +10628,7 @@
     </row>
     <row r="669" spans="1:3">
       <c r="A669" s="1">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="B669" t="s">
         <v>661</v>
@@ -10639,7 +10639,7 @@
     </row>
     <row r="670" spans="1:3">
       <c r="A670" s="1">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="B670" t="s">
         <v>662</v>
@@ -10650,7 +10650,7 @@
     </row>
     <row r="671" spans="1:3">
       <c r="A671" s="1">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="B671" t="s">
         <v>663</v>
@@ -10661,7 +10661,7 @@
     </row>
     <row r="672" spans="1:3">
       <c r="A672" s="1">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="B672" t="s">
         <v>664</v>
@@ -10672,7 +10672,7 @@
     </row>
     <row r="673" spans="1:3">
       <c r="A673" s="1">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="B673" t="s">
         <v>665</v>
@@ -10683,7 +10683,7 @@
     </row>
     <row r="674" spans="1:3">
       <c r="A674" s="1">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="B674" t="s">
         <v>666</v>
@@ -10694,7 +10694,7 @@
     </row>
     <row r="675" spans="1:3">
       <c r="A675" s="1">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="B675" t="s">
         <v>667</v>
@@ -10705,7 +10705,7 @@
     </row>
     <row r="676" spans="1:3">
       <c r="A676" s="1">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="B676" t="s">
         <v>668</v>
@@ -10716,7 +10716,7 @@
     </row>
     <row r="677" spans="1:3">
       <c r="A677" s="1">
-        <v>691</v>
+        <v>675</v>
       </c>
       <c r="B677" t="s">
         <v>669</v>
@@ -10727,7 +10727,7 @@
     </row>
     <row r="678" spans="1:3">
       <c r="A678" s="1">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="B678" t="s">
         <v>670</v>
@@ -10738,7 +10738,7 @@
     </row>
     <row r="679" spans="1:3">
       <c r="A679" s="1">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="B679" t="s">
         <v>671</v>
@@ -10749,7 +10749,7 @@
     </row>
     <row r="680" spans="1:3">
       <c r="A680" s="1">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="B680" t="s">
         <v>672</v>
@@ -10760,7 +10760,7 @@
     </row>
     <row r="681" spans="1:3">
       <c r="A681" s="1">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="B681" t="s">
         <v>673</v>
@@ -10771,7 +10771,7 @@
     </row>
     <row r="682" spans="1:3">
       <c r="A682" s="1">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="B682" t="s">
         <v>674</v>
@@ -10782,7 +10782,7 @@
     </row>
     <row r="683" spans="1:3">
       <c r="A683" s="1">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="B683" t="s">
         <v>675</v>
@@ -10793,7 +10793,7 @@
     </row>
     <row r="684" spans="1:3">
       <c r="A684" s="1">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="B684" t="s">
         <v>676</v>
@@ -10804,7 +10804,7 @@
     </row>
     <row r="685" spans="1:3">
       <c r="A685" s="1">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="B685" t="s">
         <v>677</v>
@@ -10815,7 +10815,7 @@
     </row>
     <row r="686" spans="1:3">
       <c r="A686" s="1">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="B686" t="s">
         <v>678</v>
@@ -10826,7 +10826,7 @@
     </row>
     <row r="687" spans="1:3">
       <c r="A687" s="1">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="B687" t="s">
         <v>679</v>
@@ -10837,7 +10837,7 @@
     </row>
     <row r="688" spans="1:3">
       <c r="A688" s="1">
-        <v>702</v>
+        <v>686</v>
       </c>
       <c r="B688" t="s">
         <v>680</v>
@@ -10848,7 +10848,7 @@
     </row>
     <row r="689" spans="1:3">
       <c r="A689" s="1">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="B689" t="s">
         <v>681</v>
@@ -10859,7 +10859,7 @@
     </row>
     <row r="690" spans="1:3">
       <c r="A690" s="1">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="B690" t="s">
         <v>682</v>
@@ -10870,7 +10870,7 @@
     </row>
     <row r="691" spans="1:3">
       <c r="A691" s="1">
-        <v>705</v>
+        <v>689</v>
       </c>
       <c r="B691" t="s">
         <v>683</v>
@@ -10881,7 +10881,7 @@
     </row>
     <row r="692" spans="1:3">
       <c r="A692" s="1">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="B692" t="s">
         <v>684</v>
@@ -10892,7 +10892,7 @@
     </row>
     <row r="693" spans="1:3">
       <c r="A693" s="1">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="B693" t="s">
         <v>685</v>
@@ -10903,7 +10903,7 @@
     </row>
     <row r="694" spans="1:3">
       <c r="A694" s="1">
-        <v>709</v>
+        <v>692</v>
       </c>
       <c r="B694" t="s">
         <v>686</v>
@@ -10914,7 +10914,7 @@
     </row>
     <row r="695" spans="1:3">
       <c r="A695" s="1">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="B695" t="s">
         <v>687</v>
@@ -10925,7 +10925,7 @@
     </row>
     <row r="696" spans="1:3">
       <c r="A696" s="1">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="B696" t="s">
         <v>688</v>
@@ -10936,7 +10936,7 @@
     </row>
     <row r="697" spans="1:3">
       <c r="A697" s="1">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="B697" t="s">
         <v>689</v>
@@ -10947,7 +10947,7 @@
     </row>
     <row r="698" spans="1:3">
       <c r="A698" s="1">
-        <v>713</v>
+        <v>696</v>
       </c>
       <c r="B698" t="s">
         <v>690</v>
@@ -10958,7 +10958,7 @@
     </row>
     <row r="699" spans="1:3">
       <c r="A699" s="1">
-        <v>714</v>
+        <v>697</v>
       </c>
       <c r="B699" t="s">
         <v>691</v>
@@ -10969,7 +10969,7 @@
     </row>
     <row r="700" spans="1:3">
       <c r="A700" s="1">
-        <v>715</v>
+        <v>698</v>
       </c>
       <c r="B700" t="s">
         <v>692</v>
@@ -10980,7 +10980,7 @@
     </row>
     <row r="701" spans="1:3">
       <c r="A701" s="1">
-        <v>716</v>
+        <v>699</v>
       </c>
       <c r="B701" t="s">
         <v>693</v>
@@ -10991,7 +10991,7 @@
     </row>
     <row r="702" spans="1:3">
       <c r="A702" s="1">
-        <v>717</v>
+        <v>700</v>
       </c>
       <c r="B702" t="s">
         <v>694</v>
@@ -11002,7 +11002,7 @@
     </row>
     <row r="703" spans="1:3">
       <c r="A703" s="1">
-        <v>718</v>
+        <v>701</v>
       </c>
       <c r="B703" t="s">
         <v>695</v>
@@ -11013,7 +11013,7 @@
     </row>
     <row r="704" spans="1:3">
       <c r="A704" s="1">
-        <v>719</v>
+        <v>702</v>
       </c>
       <c r="B704" t="s">
         <v>82</v>
@@ -11024,7 +11024,7 @@
     </row>
     <row r="705" spans="1:3">
       <c r="A705" s="1">
-        <v>720</v>
+        <v>703</v>
       </c>
       <c r="B705" t="s">
         <v>696</v>
@@ -11035,7 +11035,7 @@
     </row>
     <row r="706" spans="1:3">
       <c r="A706" s="1">
-        <v>721</v>
+        <v>704</v>
       </c>
       <c r="B706" t="s">
         <v>697</v>
@@ -11046,7 +11046,7 @@
     </row>
     <row r="707" spans="1:3">
       <c r="A707" s="1">
-        <v>722</v>
+        <v>705</v>
       </c>
       <c r="B707" t="s">
         <v>698</v>
@@ -11057,7 +11057,7 @@
     </row>
     <row r="708" spans="1:3">
       <c r="A708" s="1">
-        <v>723</v>
+        <v>706</v>
       </c>
       <c r="B708" t="s">
         <v>699</v>
@@ -11068,7 +11068,7 @@
     </row>
     <row r="709" spans="1:3">
       <c r="A709" s="1">
-        <v>724</v>
+        <v>707</v>
       </c>
       <c r="B709" t="s">
         <v>700</v>
@@ -11079,7 +11079,7 @@
     </row>
     <row r="710" spans="1:3">
       <c r="A710" s="1">
-        <v>725</v>
+        <v>708</v>
       </c>
       <c r="B710" t="s">
         <v>701</v>
@@ -11090,7 +11090,7 @@
     </row>
     <row r="711" spans="1:3">
       <c r="A711" s="1">
-        <v>726</v>
+        <v>709</v>
       </c>
       <c r="B711" t="s">
         <v>702</v>
@@ -11101,7 +11101,7 @@
     </row>
     <row r="712" spans="1:3">
       <c r="A712" s="1">
-        <v>727</v>
+        <v>710</v>
       </c>
       <c r="B712" t="s">
         <v>703</v>
@@ -11112,7 +11112,7 @@
     </row>
     <row r="713" spans="1:3">
       <c r="A713" s="1">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="B713" t="s">
         <v>704</v>
@@ -11123,7 +11123,7 @@
     </row>
     <row r="714" spans="1:3">
       <c r="A714" s="1">
-        <v>729</v>
+        <v>712</v>
       </c>
       <c r="B714" t="s">
         <v>705</v>
@@ -11134,7 +11134,7 @@
     </row>
     <row r="715" spans="1:3">
       <c r="A715" s="1">
-        <v>730</v>
+        <v>713</v>
       </c>
       <c r="B715" t="s">
         <v>706</v>
@@ -11145,7 +11145,7 @@
     </row>
     <row r="716" spans="1:3">
       <c r="A716" s="1">
-        <v>731</v>
+        <v>714</v>
       </c>
       <c r="B716" t="s">
         <v>707</v>
@@ -11156,7 +11156,7 @@
     </row>
     <row r="717" spans="1:3">
       <c r="A717" s="1">
-        <v>732</v>
+        <v>715</v>
       </c>
       <c r="B717" t="s">
         <v>708</v>
@@ -11167,7 +11167,7 @@
     </row>
     <row r="718" spans="1:3">
       <c r="A718" s="1">
-        <v>733</v>
+        <v>716</v>
       </c>
       <c r="B718" t="s">
         <v>709</v>
@@ -11178,7 +11178,7 @@
     </row>
     <row r="719" spans="1:3">
       <c r="A719" s="1">
-        <v>734</v>
+        <v>717</v>
       </c>
       <c r="B719" t="s">
         <v>710</v>
@@ -11189,7 +11189,7 @@
     </row>
     <row r="720" spans="1:3">
       <c r="A720" s="1">
-        <v>735</v>
+        <v>718</v>
       </c>
       <c r="B720" t="s">
         <v>711</v>
@@ -11200,7 +11200,7 @@
     </row>
     <row r="721" spans="1:3">
       <c r="A721" s="1">
-        <v>736</v>
+        <v>719</v>
       </c>
       <c r="B721" t="s">
         <v>712</v>
@@ -11211,7 +11211,7 @@
     </row>
     <row r="722" spans="1:3">
       <c r="A722" s="1">
-        <v>737</v>
+        <v>720</v>
       </c>
       <c r="B722" t="s">
         <v>713</v>
@@ -11222,7 +11222,7 @@
     </row>
     <row r="723" spans="1:3">
       <c r="A723" s="1">
-        <v>738</v>
+        <v>721</v>
       </c>
       <c r="B723" t="s">
         <v>714</v>
@@ -11233,7 +11233,7 @@
     </row>
     <row r="724" spans="1:3">
       <c r="A724" s="1">
-        <v>739</v>
+        <v>722</v>
       </c>
       <c r="B724" t="s">
         <v>715</v>
@@ -11244,7 +11244,7 @@
     </row>
     <row r="725" spans="1:3">
       <c r="A725" s="1">
-        <v>740</v>
+        <v>723</v>
       </c>
       <c r="B725" t="s">
         <v>716</v>
@@ -11255,7 +11255,7 @@
     </row>
     <row r="726" spans="1:3">
       <c r="A726" s="1">
-        <v>741</v>
+        <v>724</v>
       </c>
       <c r="B726" t="s">
         <v>717</v>
@@ -11266,7 +11266,7 @@
     </row>
     <row r="727" spans="1:3">
       <c r="A727" s="1">
-        <v>742</v>
+        <v>725</v>
       </c>
       <c r="B727" t="s">
         <v>718</v>
@@ -11277,7 +11277,7 @@
     </row>
     <row r="728" spans="1:3">
       <c r="A728" s="1">
-        <v>743</v>
+        <v>726</v>
       </c>
       <c r="B728" t="s">
         <v>719</v>
@@ -11288,7 +11288,7 @@
     </row>
     <row r="729" spans="1:3">
       <c r="A729" s="1">
-        <v>744</v>
+        <v>727</v>
       </c>
       <c r="B729" t="s">
         <v>720</v>
@@ -11299,7 +11299,7 @@
     </row>
     <row r="730" spans="1:3">
       <c r="A730" s="1">
-        <v>745</v>
+        <v>728</v>
       </c>
       <c r="B730" t="s">
         <v>721</v>
@@ -11310,7 +11310,7 @@
     </row>
     <row r="731" spans="1:3">
       <c r="A731" s="1">
-        <v>746</v>
+        <v>729</v>
       </c>
       <c r="B731" t="s">
         <v>722</v>
@@ -11321,7 +11321,7 @@
     </row>
     <row r="732" spans="1:3">
       <c r="A732" s="1">
-        <v>747</v>
+        <v>730</v>
       </c>
       <c r="B732" t="s">
         <v>723</v>
@@ -11332,7 +11332,7 @@
     </row>
     <row r="733" spans="1:3">
       <c r="A733" s="1">
-        <v>748</v>
+        <v>731</v>
       </c>
       <c r="B733" t="s">
         <v>724</v>
@@ -11343,7 +11343,7 @@
     </row>
     <row r="734" spans="1:3">
       <c r="A734" s="1">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="B734" t="s">
         <v>725</v>
@@ -11354,7 +11354,7 @@
     </row>
     <row r="735" spans="1:3">
       <c r="A735" s="1">
-        <v>750</v>
+        <v>733</v>
       </c>
       <c r="B735" t="s">
         <v>726</v>
@@ -11365,7 +11365,7 @@
     </row>
     <row r="736" spans="1:3">
       <c r="A736" s="1">
-        <v>751</v>
+        <v>734</v>
       </c>
       <c r="B736" t="s">
         <v>727</v>
@@ -11376,7 +11376,7 @@
     </row>
     <row r="737" spans="1:3">
       <c r="A737" s="1">
-        <v>752</v>
+        <v>735</v>
       </c>
       <c r="B737" t="s">
         <v>728</v>
@@ -11387,7 +11387,7 @@
     </row>
     <row r="738" spans="1:3">
       <c r="A738" s="1">
-        <v>753</v>
+        <v>736</v>
       </c>
       <c r="B738" t="s">
         <v>729</v>
@@ -11398,7 +11398,7 @@
     </row>
     <row r="739" spans="1:3">
       <c r="A739" s="1">
-        <v>754</v>
+        <v>737</v>
       </c>
       <c r="B739" t="s">
         <v>730</v>
@@ -11409,7 +11409,7 @@
     </row>
     <row r="740" spans="1:3">
       <c r="A740" s="1">
-        <v>755</v>
+        <v>738</v>
       </c>
       <c r="B740" t="s">
         <v>731</v>
@@ -11420,7 +11420,7 @@
     </row>
     <row r="741" spans="1:3">
       <c r="A741" s="1">
-        <v>756</v>
+        <v>739</v>
       </c>
       <c r="B741" t="s">
         <v>732</v>
@@ -11431,7 +11431,7 @@
     </row>
     <row r="742" spans="1:3">
       <c r="A742" s="1">
-        <v>757</v>
+        <v>740</v>
       </c>
       <c r="B742" t="s">
         <v>733</v>
@@ -11442,7 +11442,7 @@
     </row>
     <row r="743" spans="1:3">
       <c r="A743" s="1">
-        <v>758</v>
+        <v>741</v>
       </c>
       <c r="B743" t="s">
         <v>734</v>
@@ -11453,7 +11453,7 @@
     </row>
     <row r="744" spans="1:3">
       <c r="A744" s="1">
-        <v>759</v>
+        <v>742</v>
       </c>
       <c r="B744" t="s">
         <v>735</v>
@@ -11464,7 +11464,7 @@
     </row>
     <row r="745" spans="1:3">
       <c r="A745" s="1">
-        <v>760</v>
+        <v>743</v>
       </c>
       <c r="B745" t="s">
         <v>736</v>
@@ -11475,7 +11475,7 @@
     </row>
     <row r="746" spans="1:3">
       <c r="A746" s="1">
-        <v>761</v>
+        <v>744</v>
       </c>
       <c r="B746" t="s">
         <v>737</v>
@@ -11486,7 +11486,7 @@
     </row>
     <row r="747" spans="1:3">
       <c r="A747" s="1">
-        <v>762</v>
+        <v>745</v>
       </c>
       <c r="B747" t="s">
         <v>738</v>
@@ -11497,7 +11497,7 @@
     </row>
     <row r="748" spans="1:3">
       <c r="A748" s="1">
-        <v>763</v>
+        <v>746</v>
       </c>
       <c r="B748" t="s">
         <v>739</v>
@@ -11508,7 +11508,7 @@
     </row>
     <row r="749" spans="1:3">
       <c r="A749" s="1">
-        <v>764</v>
+        <v>747</v>
       </c>
       <c r="B749" t="s">
         <v>740</v>
@@ -11519,7 +11519,7 @@
     </row>
     <row r="750" spans="1:3">
       <c r="A750" s="1">
-        <v>765</v>
+        <v>748</v>
       </c>
       <c r="B750" t="s">
         <v>741</v>
@@ -11530,7 +11530,7 @@
     </row>
     <row r="751" spans="1:3">
       <c r="A751" s="1">
-        <v>766</v>
+        <v>749</v>
       </c>
       <c r="B751" t="s">
         <v>742</v>
@@ -11541,7 +11541,7 @@
     </row>
     <row r="752" spans="1:3">
       <c r="A752" s="1">
-        <v>767</v>
+        <v>750</v>
       </c>
       <c r="B752" t="s">
         <v>743</v>
@@ -11552,7 +11552,7 @@
     </row>
     <row r="753" spans="1:3">
       <c r="A753" s="1">
-        <v>769</v>
+        <v>751</v>
       </c>
       <c r="B753" t="s">
         <v>744</v>
@@ -11563,7 +11563,7 @@
     </row>
     <row r="754" spans="1:3">
       <c r="A754" s="1">
-        <v>771</v>
+        <v>752</v>
       </c>
       <c r="B754" t="s">
         <v>745</v>
@@ -11574,7 +11574,7 @@
     </row>
     <row r="755" spans="1:3">
       <c r="A755" s="1">
-        <v>772</v>
+        <v>753</v>
       </c>
       <c r="B755" t="s">
         <v>456</v>
@@ -11585,7 +11585,7 @@
     </row>
     <row r="756" spans="1:3">
       <c r="A756" s="1">
-        <v>773</v>
+        <v>754</v>
       </c>
       <c r="B756" t="s">
         <v>746</v>
@@ -11596,7 +11596,7 @@
     </row>
     <row r="757" spans="1:3">
       <c r="A757" s="1">
-        <v>774</v>
+        <v>755</v>
       </c>
       <c r="B757" t="s">
         <v>747</v>
@@ -11607,7 +11607,7 @@
     </row>
     <row r="758" spans="1:3">
       <c r="A758" s="1">
-        <v>775</v>
+        <v>756</v>
       </c>
       <c r="B758" t="s">
         <v>748</v>
@@ -11618,7 +11618,7 @@
     </row>
     <row r="759" spans="1:3">
       <c r="A759" s="1">
-        <v>776</v>
+        <v>757</v>
       </c>
       <c r="B759" t="s">
         <v>749</v>
@@ -11629,7 +11629,7 @@
     </row>
     <row r="760" spans="1:3">
       <c r="A760" s="1">
-        <v>777</v>
+        <v>758</v>
       </c>
       <c r="B760" t="s">
         <v>750</v>
@@ -11640,7 +11640,7 @@
     </row>
     <row r="761" spans="1:3">
       <c r="A761" s="1">
-        <v>778</v>
+        <v>759</v>
       </c>
       <c r="B761" t="s">
         <v>751</v>
@@ -11651,7 +11651,7 @@
     </row>
     <row r="762" spans="1:3">
       <c r="A762" s="1">
-        <v>779</v>
+        <v>760</v>
       </c>
       <c r="B762" t="s">
         <v>752</v>
@@ -11662,7 +11662,7 @@
     </row>
     <row r="763" spans="1:3">
       <c r="A763" s="1">
-        <v>780</v>
+        <v>761</v>
       </c>
       <c r="B763" t="s">
         <v>753</v>
@@ -11673,7 +11673,7 @@
     </row>
     <row r="764" spans="1:3">
       <c r="A764" s="1">
-        <v>781</v>
+        <v>762</v>
       </c>
       <c r="B764" t="s">
         <v>754</v>
@@ -11684,7 +11684,7 @@
     </row>
     <row r="765" spans="1:3">
       <c r="A765" s="1">
-        <v>782</v>
+        <v>763</v>
       </c>
       <c r="B765" t="s">
         <v>755</v>
@@ -11695,7 +11695,7 @@
     </row>
     <row r="766" spans="1:3">
       <c r="A766" s="1">
-        <v>783</v>
+        <v>764</v>
       </c>
       <c r="B766" t="s">
         <v>756</v>
@@ -11706,7 +11706,7 @@
     </row>
     <row r="767" spans="1:3">
       <c r="A767" s="1">
-        <v>784</v>
+        <v>765</v>
       </c>
       <c r="B767" t="s">
         <v>757</v>
@@ -11717,7 +11717,7 @@
     </row>
     <row r="768" spans="1:3">
       <c r="A768" s="1">
-        <v>785</v>
+        <v>766</v>
       </c>
       <c r="B768" t="s">
         <v>758</v>
@@ -11728,7 +11728,7 @@
     </row>
     <row r="769" spans="1:3">
       <c r="A769" s="1">
-        <v>786</v>
+        <v>767</v>
       </c>
       <c r="B769" t="s">
         <v>759</v>
@@ -11739,7 +11739,7 @@
     </row>
     <row r="770" spans="1:3">
       <c r="A770" s="1">
-        <v>787</v>
+        <v>768</v>
       </c>
       <c r="B770" t="s">
         <v>760</v>
@@ -11750,7 +11750,7 @@
     </row>
     <row r="771" spans="1:3">
       <c r="A771" s="1">
-        <v>788</v>
+        <v>769</v>
       </c>
       <c r="B771" t="s">
         <v>761</v>
@@ -11761,7 +11761,7 @@
     </row>
     <row r="772" spans="1:3">
       <c r="A772" s="1">
-        <v>789</v>
+        <v>770</v>
       </c>
       <c r="B772" t="s">
         <v>762</v>
@@ -11772,7 +11772,7 @@
     </row>
     <row r="773" spans="1:3">
       <c r="A773" s="1">
-        <v>790</v>
+        <v>771</v>
       </c>
       <c r="B773" t="s">
         <v>763</v>
@@ -11783,7 +11783,7 @@
     </row>
     <row r="774" spans="1:3">
       <c r="A774" s="1">
-        <v>791</v>
+        <v>772</v>
       </c>
       <c r="B774" t="s">
         <v>764</v>
@@ -11794,7 +11794,7 @@
     </row>
     <row r="775" spans="1:3">
       <c r="A775" s="1">
-        <v>792</v>
+        <v>773</v>
       </c>
       <c r="B775" t="s">
         <v>765</v>
@@ -11805,7 +11805,7 @@
     </row>
     <row r="776" spans="1:3">
       <c r="A776" s="1">
-        <v>793</v>
+        <v>774</v>
       </c>
       <c r="B776" t="s">
         <v>766</v>
@@ -11816,7 +11816,7 @@
     </row>
     <row r="777" spans="1:3">
       <c r="A777" s="1">
-        <v>794</v>
+        <v>775</v>
       </c>
       <c r="B777" t="s">
         <v>767</v>
@@ -11827,7 +11827,7 @@
     </row>
     <row r="778" spans="1:3">
       <c r="A778" s="1">
-        <v>795</v>
+        <v>776</v>
       </c>
       <c r="B778" t="s">
         <v>768</v>
@@ -11838,7 +11838,7 @@
     </row>
     <row r="779" spans="1:3">
       <c r="A779" s="1">
-        <v>796</v>
+        <v>777</v>
       </c>
       <c r="B779" t="s">
         <v>769</v>
@@ -11849,7 +11849,7 @@
     </row>
     <row r="780" spans="1:3">
       <c r="A780" s="1">
-        <v>797</v>
+        <v>778</v>
       </c>
       <c r="B780" t="s">
         <v>770</v>
@@ -11860,7 +11860,7 @@
     </row>
     <row r="781" spans="1:3">
       <c r="A781" s="1">
-        <v>798</v>
+        <v>779</v>
       </c>
       <c r="B781" t="s">
         <v>771</v>
@@ -11871,7 +11871,7 @@
     </row>
     <row r="782" spans="1:3">
       <c r="A782" s="1">
-        <v>799</v>
+        <v>780</v>
       </c>
       <c r="B782" t="s">
         <v>772</v>
@@ -11882,7 +11882,7 @@
     </row>
     <row r="783" spans="1:3">
       <c r="A783" s="1">
-        <v>800</v>
+        <v>781</v>
       </c>
       <c r="B783" t="s">
         <v>773</v>
@@ -11893,7 +11893,7 @@
     </row>
     <row r="784" spans="1:3">
       <c r="A784" s="1">
-        <v>801</v>
+        <v>782</v>
       </c>
       <c r="B784" t="s">
         <v>774</v>
@@ -11904,7 +11904,7 @@
     </row>
     <row r="785" spans="1:3">
       <c r="A785" s="1">
-        <v>802</v>
+        <v>783</v>
       </c>
       <c r="B785" t="s">
         <v>775</v>
@@ -11915,7 +11915,7 @@
     </row>
     <row r="786" spans="1:3">
       <c r="A786" s="1">
-        <v>803</v>
+        <v>784</v>
       </c>
       <c r="B786" t="s">
         <v>776</v>
@@ -11926,7 +11926,7 @@
     </row>
     <row r="787" spans="1:3">
       <c r="A787" s="1">
-        <v>804</v>
+        <v>785</v>
       </c>
       <c r="B787" t="s">
         <v>777</v>
@@ -11937,7 +11937,7 @@
     </row>
     <row r="788" spans="1:3">
       <c r="A788" s="1">
-        <v>805</v>
+        <v>786</v>
       </c>
       <c r="B788" t="s">
         <v>778</v>
@@ -11948,7 +11948,7 @@
     </row>
     <row r="789" spans="1:3">
       <c r="A789" s="1">
-        <v>806</v>
+        <v>787</v>
       </c>
       <c r="B789" t="s">
         <v>779</v>
@@ -11959,7 +11959,7 @@
     </row>
     <row r="790" spans="1:3">
       <c r="A790" s="1">
-        <v>807</v>
+        <v>788</v>
       </c>
       <c r="B790" t="s">
         <v>780</v>
@@ -11970,7 +11970,7 @@
     </row>
     <row r="791" spans="1:3">
       <c r="A791" s="1">
-        <v>808</v>
+        <v>789</v>
       </c>
       <c r="B791" t="s">
         <v>781</v>
@@ -11981,7 +11981,7 @@
     </row>
     <row r="792" spans="1:3">
       <c r="A792" s="1">
-        <v>809</v>
+        <v>790</v>
       </c>
       <c r="B792" t="s">
         <v>782</v>
@@ -11992,7 +11992,7 @@
     </row>
     <row r="793" spans="1:3">
       <c r="A793" s="1">
-        <v>810</v>
+        <v>791</v>
       </c>
       <c r="B793" t="s">
         <v>783</v>
@@ -12003,7 +12003,7 @@
     </row>
     <row r="794" spans="1:3">
       <c r="A794" s="1">
-        <v>811</v>
+        <v>792</v>
       </c>
       <c r="B794" t="s">
         <v>784</v>
@@ -12014,7 +12014,7 @@
     </row>
     <row r="795" spans="1:3">
       <c r="A795" s="1">
-        <v>812</v>
+        <v>793</v>
       </c>
       <c r="B795" t="s">
         <v>785</v>
@@ -12025,7 +12025,7 @@
     </row>
     <row r="796" spans="1:3">
       <c r="A796" s="1">
-        <v>813</v>
+        <v>794</v>
       </c>
       <c r="B796" t="s">
         <v>786</v>
@@ -12036,7 +12036,7 @@
     </row>
     <row r="797" spans="1:3">
       <c r="A797" s="1">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="B797" t="s">
         <v>787</v>
@@ -12047,7 +12047,7 @@
     </row>
     <row r="798" spans="1:3">
       <c r="A798" s="1">
-        <v>815</v>
+        <v>796</v>
       </c>
       <c r="B798" t="s">
         <v>788</v>
@@ -12058,7 +12058,7 @@
     </row>
     <row r="799" spans="1:3">
       <c r="A799" s="1">
-        <v>816</v>
+        <v>797</v>
       </c>
       <c r="B799" t="s">
         <v>789</v>
@@ -12069,7 +12069,7 @@
     </row>
     <row r="800" spans="1:3">
       <c r="A800" s="1">
-        <v>817</v>
+        <v>798</v>
       </c>
       <c r="B800" t="s">
         <v>790</v>
@@ -12080,7 +12080,7 @@
     </row>
     <row r="801" spans="1:3">
       <c r="A801" s="1">
-        <v>818</v>
+        <v>799</v>
       </c>
       <c r="B801" t="s">
         <v>791</v>
@@ -12091,7 +12091,7 @@
     </row>
     <row r="802" spans="1:3">
       <c r="A802" s="1">
-        <v>819</v>
+        <v>800</v>
       </c>
       <c r="B802" t="s">
         <v>792</v>
@@ -12102,7 +12102,7 @@
     </row>
     <row r="803" spans="1:3">
       <c r="A803" s="1">
-        <v>820</v>
+        <v>801</v>
       </c>
       <c r="B803" t="s">
         <v>793</v>
@@ -12113,7 +12113,7 @@
     </row>
     <row r="804" spans="1:3">
       <c r="A804" s="1">
-        <v>821</v>
+        <v>802</v>
       </c>
       <c r="B804" t="s">
         <v>794</v>
@@ -12124,7 +12124,7 @@
     </row>
     <row r="805" spans="1:3">
       <c r="A805" s="1">
-        <v>822</v>
+        <v>803</v>
       </c>
       <c r="B805" t="s">
         <v>795</v>
@@ -12135,7 +12135,7 @@
     </row>
     <row r="806" spans="1:3">
       <c r="A806" s="1">
-        <v>823</v>
+        <v>804</v>
       </c>
       <c r="B806" t="s">
         <v>796</v>
@@ -12146,7 +12146,7 @@
     </row>
     <row r="807" spans="1:3">
       <c r="A807" s="1">
-        <v>824</v>
+        <v>805</v>
       </c>
       <c r="B807" t="s">
         <v>797</v>
@@ -12157,7 +12157,7 @@
     </row>
     <row r="808" spans="1:3">
       <c r="A808" s="1">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="B808" t="s">
         <v>798</v>
@@ -12168,7 +12168,7 @@
     </row>
     <row r="809" spans="1:3">
       <c r="A809" s="1">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="B809" t="s">
         <v>799</v>
@@ -12179,7 +12179,7 @@
     </row>
     <row r="810" spans="1:3">
       <c r="A810" s="1">
-        <v>827</v>
+        <v>808</v>
       </c>
       <c r="B810" t="s">
         <v>800</v>
@@ -12190,7 +12190,7 @@
     </row>
     <row r="811" spans="1:3">
       <c r="A811" s="1">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="B811" t="s">
         <v>801</v>
@@ -12201,7 +12201,7 @@
     </row>
     <row r="812" spans="1:3">
       <c r="A812" s="1">
-        <v>829</v>
+        <v>810</v>
       </c>
       <c r="B812" t="s">
         <v>802</v>
@@ -12212,7 +12212,7 @@
     </row>
     <row r="813" spans="1:3">
       <c r="A813" s="1">
-        <v>831</v>
+        <v>811</v>
       </c>
       <c r="B813" t="s">
         <v>803</v>
@@ -12223,7 +12223,7 @@
     </row>
     <row r="814" spans="1:3">
       <c r="A814" s="1">
-        <v>832</v>
+        <v>812</v>
       </c>
       <c r="B814" t="s">
         <v>804</v>
@@ -12234,7 +12234,7 @@
     </row>
     <row r="815" spans="1:3">
       <c r="A815" s="1">
-        <v>833</v>
+        <v>813</v>
       </c>
       <c r="B815" t="s">
         <v>805</v>
@@ -12245,7 +12245,7 @@
     </row>
     <row r="816" spans="1:3">
       <c r="A816" s="1">
-        <v>834</v>
+        <v>814</v>
       </c>
       <c r="B816" t="s">
         <v>806</v>
@@ -12256,7 +12256,7 @@
     </row>
     <row r="817" spans="1:3">
       <c r="A817" s="1">
-        <v>835</v>
+        <v>815</v>
       </c>
       <c r="B817" t="s">
         <v>807</v>
@@ -12267,7 +12267,7 @@
     </row>
     <row r="818" spans="1:3">
       <c r="A818" s="1">
-        <v>836</v>
+        <v>816</v>
       </c>
       <c r="B818" t="s">
         <v>808</v>
@@ -12278,7 +12278,7 @@
     </row>
     <row r="819" spans="1:3">
       <c r="A819" s="1">
-        <v>837</v>
+        <v>817</v>
       </c>
       <c r="B819" t="s">
         <v>809</v>
@@ -12289,7 +12289,7 @@
     </row>
     <row r="820" spans="1:3">
       <c r="A820" s="1">
-        <v>838</v>
+        <v>818</v>
       </c>
       <c r="B820" t="s">
         <v>810</v>
@@ -12300,7 +12300,7 @@
     </row>
     <row r="821" spans="1:3">
       <c r="A821" s="1">
-        <v>839</v>
+        <v>819</v>
       </c>
       <c r="B821" t="s">
         <v>811</v>
@@ -12311,7 +12311,7 @@
     </row>
     <row r="822" spans="1:3">
       <c r="A822" s="1">
-        <v>840</v>
+        <v>820</v>
       </c>
       <c r="B822" t="s">
         <v>812</v>
@@ -12322,7 +12322,7 @@
     </row>
     <row r="823" spans="1:3">
       <c r="A823" s="1">
-        <v>841</v>
+        <v>821</v>
       </c>
       <c r="B823" t="s">
         <v>813</v>
@@ -12333,7 +12333,7 @@
     </row>
     <row r="824" spans="1:3">
       <c r="A824" s="1">
-        <v>842</v>
+        <v>822</v>
       </c>
       <c r="B824" t="s">
         <v>814</v>
@@ -12344,7 +12344,7 @@
     </row>
     <row r="825" spans="1:3">
       <c r="A825" s="1">
-        <v>843</v>
+        <v>823</v>
       </c>
       <c r="B825" t="s">
         <v>815</v>
@@ -12355,7 +12355,7 @@
     </row>
     <row r="826" spans="1:3">
       <c r="A826" s="1">
-        <v>845</v>
+        <v>824</v>
       </c>
       <c r="B826" t="s">
         <v>816</v>
@@ -12366,7 +12366,7 @@
     </row>
     <row r="827" spans="1:3">
       <c r="A827" s="1">
-        <v>846</v>
+        <v>825</v>
       </c>
       <c r="B827" t="s">
         <v>817</v>
@@ -12377,7 +12377,7 @@
     </row>
     <row r="828" spans="1:3">
       <c r="A828" s="1">
-        <v>847</v>
+        <v>826</v>
       </c>
       <c r="B828" t="s">
         <v>818</v>
@@ -12388,7 +12388,7 @@
     </row>
     <row r="829" spans="1:3">
       <c r="A829" s="1">
-        <v>848</v>
+        <v>827</v>
       </c>
       <c r="B829" t="s">
         <v>819</v>
@@ -12399,7 +12399,7 @@
     </row>
     <row r="830" spans="1:3">
       <c r="A830" s="1">
-        <v>849</v>
+        <v>828</v>
       </c>
       <c r="B830" t="s">
         <v>820</v>
@@ -12410,7 +12410,7 @@
     </row>
     <row r="831" spans="1:3">
       <c r="A831" s="1">
-        <v>850</v>
+        <v>829</v>
       </c>
       <c r="B831" t="s">
         <v>821</v>
@@ -12421,7 +12421,7 @@
     </row>
     <row r="832" spans="1:3">
       <c r="A832" s="1">
-        <v>852</v>
+        <v>830</v>
       </c>
       <c r="B832" t="s">
         <v>822</v>
@@ -12432,7 +12432,7 @@
     </row>
     <row r="833" spans="1:3">
       <c r="A833" s="1">
-        <v>853</v>
+        <v>831</v>
       </c>
       <c r="B833" t="s">
         <v>823</v>
@@ -12443,7 +12443,7 @@
     </row>
     <row r="834" spans="1:3">
       <c r="A834" s="1">
-        <v>854</v>
+        <v>832</v>
       </c>
       <c r="B834" t="s">
         <v>824</v>
@@ -12454,7 +12454,7 @@
     </row>
     <row r="835" spans="1:3">
       <c r="A835" s="1">
-        <v>855</v>
+        <v>833</v>
       </c>
       <c r="B835" t="s">
         <v>825</v>
@@ -12465,7 +12465,7 @@
     </row>
     <row r="836" spans="1:3">
       <c r="A836" s="1">
-        <v>856</v>
+        <v>834</v>
       </c>
       <c r="B836" t="s">
         <v>161</v>
@@ -12476,7 +12476,7 @@
     </row>
     <row r="837" spans="1:3">
       <c r="A837" s="1">
-        <v>857</v>
+        <v>835</v>
       </c>
       <c r="B837" t="s">
         <v>826</v>
@@ -12487,7 +12487,7 @@
     </row>
     <row r="838" spans="1:3">
       <c r="A838" s="1">
-        <v>858</v>
+        <v>836</v>
       </c>
       <c r="B838" t="s">
         <v>827</v>
@@ -12498,7 +12498,7 @@
     </row>
     <row r="839" spans="1:3">
       <c r="A839" s="1">
-        <v>859</v>
+        <v>837</v>
       </c>
       <c r="B839" t="s">
         <v>828</v>
@@ -12509,7 +12509,7 @@
     </row>
     <row r="840" spans="1:3">
       <c r="A840" s="1">
-        <v>860</v>
+        <v>838</v>
       </c>
       <c r="B840" t="s">
         <v>829</v>
@@ -12520,7 +12520,7 @@
     </row>
     <row r="841" spans="1:3">
       <c r="A841" s="1">
-        <v>861</v>
+        <v>839</v>
       </c>
       <c r="B841" t="s">
         <v>830</v>
@@ -12531,7 +12531,7 @@
     </row>
     <row r="842" spans="1:3">
       <c r="A842" s="1">
-        <v>862</v>
+        <v>840</v>
       </c>
       <c r="B842" t="s">
         <v>831</v>
@@ -12542,7 +12542,7 @@
     </row>
     <row r="843" spans="1:3">
       <c r="A843" s="1">
-        <v>863</v>
+        <v>841</v>
       </c>
       <c r="B843" t="s">
         <v>832</v>
@@ -12553,7 +12553,7 @@
     </row>
     <row r="844" spans="1:3">
       <c r="A844" s="1">
-        <v>864</v>
+        <v>842</v>
       </c>
       <c r="B844" t="s">
         <v>833</v>
@@ -12564,7 +12564,7 @@
     </row>
     <row r="845" spans="1:3">
       <c r="A845" s="1">
-        <v>865</v>
+        <v>843</v>
       </c>
       <c r="B845" t="s">
         <v>834</v>
@@ -12575,7 +12575,7 @@
     </row>
     <row r="846" spans="1:3">
       <c r="A846" s="1">
-        <v>866</v>
+        <v>844</v>
       </c>
       <c r="B846" t="s">
         <v>835</v>
@@ -12586,7 +12586,7 @@
     </row>
     <row r="847" spans="1:3">
       <c r="A847" s="1">
-        <v>867</v>
+        <v>845</v>
       </c>
       <c r="B847" t="s">
         <v>836</v>
@@ -12597,7 +12597,7 @@
     </row>
     <row r="848" spans="1:3">
       <c r="A848" s="1">
-        <v>868</v>
+        <v>846</v>
       </c>
       <c r="B848" t="s">
         <v>837</v>
@@ -12608,7 +12608,7 @@
     </row>
     <row r="849" spans="1:3">
       <c r="A849" s="1">
-        <v>869</v>
+        <v>847</v>
       </c>
       <c r="B849" t="s">
         <v>838</v>
@@ -12619,7 +12619,7 @@
     </row>
     <row r="850" spans="1:3">
       <c r="A850" s="1">
-        <v>870</v>
+        <v>848</v>
       </c>
       <c r="B850" t="s">
         <v>839</v>
@@ -12630,7 +12630,7 @@
     </row>
     <row r="851" spans="1:3">
       <c r="A851" s="1">
-        <v>871</v>
+        <v>849</v>
       </c>
       <c r="B851" t="s">
         <v>840</v>
@@ -12641,7 +12641,7 @@
     </row>
     <row r="852" spans="1:3">
       <c r="A852" s="1">
-        <v>872</v>
+        <v>850</v>
       </c>
       <c r="B852" t="s">
         <v>841</v>
@@ -12652,7 +12652,7 @@
     </row>
     <row r="853" spans="1:3">
       <c r="A853" s="1">
-        <v>873</v>
+        <v>851</v>
       </c>
       <c r="B853" t="s">
         <v>842</v>
@@ -12663,7 +12663,7 @@
     </row>
     <row r="854" spans="1:3">
       <c r="A854" s="1">
-        <v>874</v>
+        <v>852</v>
       </c>
       <c r="B854" t="s">
         <v>843</v>
@@ -12674,7 +12674,7 @@
     </row>
     <row r="855" spans="1:3">
       <c r="A855" s="1">
-        <v>875</v>
+        <v>853</v>
       </c>
       <c r="B855" t="s">
         <v>844</v>
@@ -12685,7 +12685,7 @@
     </row>
     <row r="856" spans="1:3">
       <c r="A856" s="1">
-        <v>876</v>
+        <v>854</v>
       </c>
       <c r="B856" t="s">
         <v>845</v>
@@ -12696,7 +12696,7 @@
     </row>
     <row r="857" spans="1:3">
       <c r="A857" s="1">
-        <v>877</v>
+        <v>855</v>
       </c>
       <c r="B857" t="s">
         <v>846</v>
@@ -12707,7 +12707,7 @@
     </row>
     <row r="858" spans="1:3">
       <c r="A858" s="1">
-        <v>878</v>
+        <v>856</v>
       </c>
       <c r="B858" t="s">
         <v>847</v>
@@ -12718,7 +12718,7 @@
     </row>
     <row r="859" spans="1:3">
       <c r="A859" s="1">
-        <v>879</v>
+        <v>857</v>
       </c>
       <c r="B859" t="s">
         <v>848</v>
@@ -12729,7 +12729,7 @@
     </row>
     <row r="860" spans="1:3">
       <c r="A860" s="1">
-        <v>880</v>
+        <v>858</v>
       </c>
       <c r="B860" t="s">
         <v>849</v>
@@ -12740,7 +12740,7 @@
     </row>
     <row r="861" spans="1:3">
       <c r="A861" s="1">
-        <v>881</v>
+        <v>859</v>
       </c>
       <c r="B861" t="s">
         <v>850</v>
@@ -12751,7 +12751,7 @@
     </row>
     <row r="862" spans="1:3">
       <c r="A862" s="1">
-        <v>882</v>
+        <v>860</v>
       </c>
       <c r="B862" t="s">
         <v>851</v>
@@ -12762,7 +12762,7 @@
     </row>
     <row r="863" spans="1:3">
       <c r="A863" s="1">
-        <v>883</v>
+        <v>861</v>
       </c>
       <c r="B863" t="s">
         <v>852</v>
@@ -12773,7 +12773,7 @@
     </row>
     <row r="864" spans="1:3">
       <c r="A864" s="1">
-        <v>884</v>
+        <v>862</v>
       </c>
       <c r="B864" t="s">
         <v>853</v>
@@ -12784,7 +12784,7 @@
     </row>
     <row r="865" spans="1:3">
       <c r="A865" s="1">
-        <v>885</v>
+        <v>863</v>
       </c>
       <c r="B865" t="s">
         <v>854</v>
@@ -12795,7 +12795,7 @@
     </row>
     <row r="866" spans="1:3">
       <c r="A866" s="1">
-        <v>886</v>
+        <v>864</v>
       </c>
       <c r="B866" t="s">
         <v>855</v>
@@ -12806,7 +12806,7 @@
     </row>
     <row r="867" spans="1:3">
       <c r="A867" s="1">
-        <v>887</v>
+        <v>865</v>
       </c>
       <c r="B867" t="s">
         <v>856</v>
@@ -12817,7 +12817,7 @@
     </row>
     <row r="868" spans="1:3">
       <c r="A868" s="1">
-        <v>888</v>
+        <v>866</v>
       </c>
       <c r="B868" t="s">
         <v>857</v>
@@ -12828,7 +12828,7 @@
     </row>
     <row r="869" spans="1:3">
       <c r="A869" s="1">
-        <v>889</v>
+        <v>867</v>
       </c>
       <c r="B869" t="s">
         <v>858</v>
@@ -12839,7 +12839,7 @@
     </row>
     <row r="870" spans="1:3">
       <c r="A870" s="1">
-        <v>890</v>
+        <v>868</v>
       </c>
       <c r="B870" t="s">
         <v>859</v>
@@ -12850,7 +12850,7 @@
     </row>
     <row r="871" spans="1:3">
       <c r="A871" s="1">
-        <v>891</v>
+        <v>869</v>
       </c>
       <c r="B871" t="s">
         <v>860</v>
@@ -12861,7 +12861,7 @@
     </row>
     <row r="872" spans="1:3">
       <c r="A872" s="1">
-        <v>892</v>
+        <v>870</v>
       </c>
       <c r="B872" t="s">
         <v>861</v>
@@ -12872,7 +12872,7 @@
     </row>
     <row r="873" spans="1:3">
       <c r="A873" s="1">
-        <v>893</v>
+        <v>871</v>
       </c>
       <c r="B873" t="s">
         <v>862</v>
@@ -12883,7 +12883,7 @@
     </row>
     <row r="874" spans="1:3">
       <c r="A874" s="1">
-        <v>894</v>
+        <v>872</v>
       </c>
       <c r="B874" t="s">
         <v>863</v>
@@ -12894,7 +12894,7 @@
     </row>
     <row r="875" spans="1:3">
       <c r="A875" s="1">
-        <v>895</v>
+        <v>873</v>
       </c>
       <c r="B875" t="s">
         <v>864</v>
@@ -12905,7 +12905,7 @@
     </row>
     <row r="876" spans="1:3">
       <c r="A876" s="1">
-        <v>896</v>
+        <v>874</v>
       </c>
       <c r="B876" t="s">
         <v>865</v>
@@ -12916,7 +12916,7 @@
     </row>
     <row r="877" spans="1:3">
       <c r="A877" s="1">
-        <v>897</v>
+        <v>875</v>
       </c>
       <c r="B877" t="s">
         <v>866</v>
@@ -12927,7 +12927,7 @@
     </row>
     <row r="878" spans="1:3">
       <c r="A878" s="1">
-        <v>898</v>
+        <v>876</v>
       </c>
       <c r="B878" t="s">
         <v>867</v>
@@ -12938,7 +12938,7 @@
     </row>
     <row r="879" spans="1:3">
       <c r="A879" s="1">
-        <v>899</v>
+        <v>877</v>
       </c>
       <c r="B879" t="s">
         <v>868</v>
@@ -12949,7 +12949,7 @@
     </row>
     <row r="880" spans="1:3">
       <c r="A880" s="1">
-        <v>900</v>
+        <v>878</v>
       </c>
       <c r="B880" t="s">
         <v>869</v>
@@ -12960,7 +12960,7 @@
     </row>
     <row r="881" spans="1:3">
       <c r="A881" s="1">
-        <v>901</v>
+        <v>879</v>
       </c>
       <c r="B881" t="s">
         <v>870</v>
@@ -12971,7 +12971,7 @@
     </row>
     <row r="882" spans="1:3">
       <c r="A882" s="1">
-        <v>902</v>
+        <v>880</v>
       </c>
       <c r="B882" t="s">
         <v>871</v>
@@ -12982,7 +12982,7 @@
     </row>
     <row r="883" spans="1:3">
       <c r="A883" s="1">
-        <v>903</v>
+        <v>881</v>
       </c>
       <c r="B883" t="s">
         <v>872</v>
@@ -12993,7 +12993,7 @@
     </row>
     <row r="884" spans="1:3">
       <c r="A884" s="1">
-        <v>904</v>
+        <v>882</v>
       </c>
       <c r="B884" t="s">
         <v>873</v>
@@ -13004,7 +13004,7 @@
     </row>
     <row r="885" spans="1:3">
       <c r="A885" s="1">
-        <v>905</v>
+        <v>883</v>
       </c>
       <c r="B885" t="s">
         <v>874</v>
@@ -13015,7 +13015,7 @@
     </row>
     <row r="886" spans="1:3">
       <c r="A886" s="1">
-        <v>906</v>
+        <v>884</v>
       </c>
       <c r="B886" t="s">
         <v>875</v>
@@ -13026,7 +13026,7 @@
     </row>
     <row r="887" spans="1:3">
       <c r="A887" s="1">
-        <v>907</v>
+        <v>885</v>
       </c>
       <c r="B887" t="s">
         <v>876</v>
@@ -13037,7 +13037,7 @@
     </row>
     <row r="888" spans="1:3">
       <c r="A888" s="1">
-        <v>908</v>
+        <v>886</v>
       </c>
       <c r="B888" t="s">
         <v>877</v>
@@ -13048,7 +13048,7 @@
     </row>
     <row r="889" spans="1:3">
       <c r="A889" s="1">
-        <v>909</v>
+        <v>887</v>
       </c>
       <c r="B889" t="s">
         <v>878</v>
@@ -13059,7 +13059,7 @@
     </row>
     <row r="890" spans="1:3">
       <c r="A890" s="1">
-        <v>910</v>
+        <v>888</v>
       </c>
       <c r="B890" t="s">
         <v>879</v>
@@ -13070,7 +13070,7 @@
     </row>
     <row r="891" spans="1:3">
       <c r="A891" s="1">
-        <v>911</v>
+        <v>889</v>
       </c>
       <c r="B891" t="s">
         <v>880</v>
@@ -13081,7 +13081,7 @@
     </row>
     <row r="892" spans="1:3">
       <c r="A892" s="1">
-        <v>912</v>
+        <v>890</v>
       </c>
       <c r="B892" t="s">
         <v>881</v>
@@ -13092,7 +13092,7 @@
     </row>
     <row r="893" spans="1:3">
       <c r="A893" s="1">
-        <v>913</v>
+        <v>891</v>
       </c>
       <c r="B893" t="s">
         <v>882</v>
@@ -13103,7 +13103,7 @@
     </row>
     <row r="894" spans="1:3">
       <c r="A894" s="1">
-        <v>914</v>
+        <v>892</v>
       </c>
       <c r="B894" t="s">
         <v>883</v>
@@ -13114,7 +13114,7 @@
     </row>
     <row r="895" spans="1:3">
       <c r="A895" s="1">
-        <v>915</v>
+        <v>893</v>
       </c>
       <c r="B895" t="s">
         <v>884</v>
@@ -13125,7 +13125,7 @@
     </row>
     <row r="896" spans="1:3">
       <c r="A896" s="1">
-        <v>916</v>
+        <v>894</v>
       </c>
       <c r="B896" t="s">
         <v>885</v>
@@ -13136,7 +13136,7 @@
     </row>
     <row r="897" spans="1:3">
       <c r="A897" s="1">
-        <v>918</v>
+        <v>895</v>
       </c>
       <c r="B897" t="s">
         <v>886</v>
@@ -13147,7 +13147,7 @@
     </row>
     <row r="898" spans="1:3">
       <c r="A898" s="1">
-        <v>919</v>
+        <v>896</v>
       </c>
       <c r="B898" t="s">
         <v>887</v>
@@ -13158,7 +13158,7 @@
     </row>
     <row r="899" spans="1:3">
       <c r="A899" s="1">
-        <v>920</v>
+        <v>897</v>
       </c>
       <c r="B899" t="s">
         <v>888</v>
@@ -13169,7 +13169,7 @@
     </row>
     <row r="900" spans="1:3">
       <c r="A900" s="1">
-        <v>921</v>
+        <v>898</v>
       </c>
       <c r="B900" t="s">
         <v>889</v>
@@ -13180,7 +13180,7 @@
     </row>
     <row r="901" spans="1:3">
       <c r="A901" s="1">
-        <v>922</v>
+        <v>899</v>
       </c>
       <c r="B901" t="s">
         <v>890</v>
@@ -13191,7 +13191,7 @@
     </row>
     <row r="902" spans="1:3">
       <c r="A902" s="1">
-        <v>923</v>
+        <v>900</v>
       </c>
       <c r="B902" t="s">
         <v>891</v>
@@ -13202,7 +13202,7 @@
     </row>
     <row r="903" spans="1:3">
       <c r="A903" s="1">
-        <v>924</v>
+        <v>901</v>
       </c>
       <c r="B903" t="s">
         <v>892</v>
@@ -13213,7 +13213,7 @@
     </row>
     <row r="904" spans="1:3">
       <c r="A904" s="1">
-        <v>925</v>
+        <v>902</v>
       </c>
       <c r="B904" t="s">
         <v>893</v>
@@ -13224,7 +13224,7 @@
     </row>
     <row r="905" spans="1:3">
       <c r="A905" s="1">
-        <v>927</v>
+        <v>903</v>
       </c>
       <c r="B905" t="s">
         <v>894</v>
@@ -13235,7 +13235,7 @@
     </row>
     <row r="906" spans="1:3">
       <c r="A906" s="1">
-        <v>928</v>
+        <v>904</v>
       </c>
       <c r="B906" t="s">
         <v>895</v>
@@ -13246,7 +13246,7 @@
     </row>
     <row r="907" spans="1:3">
       <c r="A907" s="1">
-        <v>929</v>
+        <v>905</v>
       </c>
       <c r="B907" t="s">
         <v>896</v>
@@ -13257,7 +13257,7 @@
     </row>
     <row r="908" spans="1:3">
       <c r="A908" s="1">
-        <v>930</v>
+        <v>906</v>
       </c>
       <c r="B908" t="s">
         <v>897</v>
@@ -13268,7 +13268,7 @@
     </row>
     <row r="909" spans="1:3">
       <c r="A909" s="1">
-        <v>931</v>
+        <v>907</v>
       </c>
       <c r="B909" t="s">
         <v>898</v>
@@ -13279,7 +13279,7 @@
     </row>
     <row r="910" spans="1:3">
       <c r="A910" s="1">
-        <v>932</v>
+        <v>908</v>
       </c>
       <c r="B910" t="s">
         <v>899</v>
@@ -13290,7 +13290,7 @@
     </row>
     <row r="911" spans="1:3">
       <c r="A911" s="1">
-        <v>933</v>
+        <v>909</v>
       </c>
       <c r="B911" t="s">
         <v>900</v>
@@ -13301,7 +13301,7 @@
     </row>
     <row r="912" spans="1:3">
       <c r="A912" s="1">
-        <v>934</v>
+        <v>910</v>
       </c>
       <c r="B912" t="s">
         <v>901</v>
@@ -13312,7 +13312,7 @@
     </row>
     <row r="913" spans="1:3">
       <c r="A913" s="1">
-        <v>935</v>
+        <v>911</v>
       </c>
       <c r="B913" t="s">
         <v>902</v>
@@ -13323,7 +13323,7 @@
     </row>
     <row r="914" spans="1:3">
       <c r="A914" s="1">
-        <v>936</v>
+        <v>912</v>
       </c>
       <c r="B914" t="s">
         <v>903</v>
@@ -13334,7 +13334,7 @@
     </row>
     <row r="915" spans="1:3">
       <c r="A915" s="1">
-        <v>937</v>
+        <v>913</v>
       </c>
       <c r="B915" t="s">
         <v>904</v>
@@ -13345,7 +13345,7 @@
     </row>
     <row r="916" spans="1:3">
       <c r="A916" s="1">
-        <v>938</v>
+        <v>914</v>
       </c>
       <c r="B916" t="s">
         <v>905</v>
@@ -13356,7 +13356,7 @@
     </row>
     <row r="917" spans="1:3">
       <c r="A917" s="1">
-        <v>939</v>
+        <v>915</v>
       </c>
       <c r="B917" t="s">
         <v>906</v>
@@ -13367,7 +13367,7 @@
     </row>
     <row r="918" spans="1:3">
       <c r="A918" s="1">
-        <v>940</v>
+        <v>916</v>
       </c>
       <c r="B918" t="s">
         <v>907</v>
@@ -13378,7 +13378,7 @@
     </row>
     <row r="919" spans="1:3">
       <c r="A919" s="1">
-        <v>941</v>
+        <v>917</v>
       </c>
       <c r="B919" t="s">
         <v>908</v>
@@ -13389,7 +13389,7 @@
     </row>
     <row r="920" spans="1:3">
       <c r="A920" s="1">
-        <v>942</v>
+        <v>918</v>
       </c>
       <c r="B920" t="s">
         <v>909</v>
@@ -13400,7 +13400,7 @@
     </row>
     <row r="921" spans="1:3">
       <c r="A921" s="1">
-        <v>943</v>
+        <v>919</v>
       </c>
       <c r="B921" t="s">
         <v>910</v>
@@ -13411,7 +13411,7 @@
     </row>
     <row r="922" spans="1:3">
       <c r="A922" s="1">
-        <v>944</v>
+        <v>920</v>
       </c>
       <c r="B922" t="s">
         <v>911</v>
@@ -13422,7 +13422,7 @@
     </row>
     <row r="923" spans="1:3">
       <c r="A923" s="1">
-        <v>945</v>
+        <v>921</v>
       </c>
       <c r="B923" t="s">
         <v>912</v>
@@ -13433,7 +13433,7 @@
     </row>
     <row r="924" spans="1:3">
       <c r="A924" s="1">
-        <v>946</v>
+        <v>922</v>
       </c>
       <c r="B924" t="s">
         <v>913</v>
@@ -13444,7 +13444,7 @@
     </row>
     <row r="925" spans="1:3">
       <c r="A925" s="1">
-        <v>947</v>
+        <v>923</v>
       </c>
       <c r="B925" t="s">
         <v>914</v>
@@ -13455,7 +13455,7 @@
     </row>
     <row r="926" spans="1:3">
       <c r="A926" s="1">
-        <v>948</v>
+        <v>924</v>
       </c>
       <c r="B926" t="s">
         <v>915</v>
@@ -13466,7 +13466,7 @@
     </row>
     <row r="927" spans="1:3">
       <c r="A927" s="1">
-        <v>949</v>
+        <v>925</v>
       </c>
       <c r="B927" t="s">
         <v>916</v>
@@ -13477,7 +13477,7 @@
     </row>
     <row r="928" spans="1:3">
       <c r="A928" s="1">
-        <v>950</v>
+        <v>926</v>
       </c>
       <c r="B928" t="s">
         <v>917</v>
@@ -13488,7 +13488,7 @@
     </row>
     <row r="929" spans="1:3">
       <c r="A929" s="1">
-        <v>951</v>
+        <v>927</v>
       </c>
       <c r="B929" t="s">
         <v>918</v>
@@ -13499,7 +13499,7 @@
     </row>
     <row r="930" spans="1:3">
       <c r="A930" s="1">
-        <v>952</v>
+        <v>928</v>
       </c>
       <c r="B930" t="s">
         <v>919</v>
@@ -13510,7 +13510,7 @@
     </row>
     <row r="931" spans="1:3">
       <c r="A931" s="1">
-        <v>953</v>
+        <v>929</v>
       </c>
       <c r="B931" t="s">
         <v>920</v>
@@ -13521,7 +13521,7 @@
     </row>
     <row r="932" spans="1:3">
       <c r="A932" s="1">
-        <v>954</v>
+        <v>930</v>
       </c>
       <c r="B932" t="s">
         <v>921</v>
@@ -13532,7 +13532,7 @@
     </row>
     <row r="933" spans="1:3">
       <c r="A933" s="1">
-        <v>955</v>
+        <v>931</v>
       </c>
       <c r="B933" t="s">
         <v>922</v>
@@ -13543,7 +13543,7 @@
     </row>
     <row r="934" spans="1:3">
       <c r="A934" s="1">
-        <v>956</v>
+        <v>932</v>
       </c>
       <c r="B934" t="s">
         <v>923</v>
@@ -13554,7 +13554,7 @@
     </row>
     <row r="935" spans="1:3">
       <c r="A935" s="1">
-        <v>957</v>
+        <v>933</v>
       </c>
       <c r="B935" t="s">
         <v>924</v>
@@ -13565,7 +13565,7 @@
     </row>
     <row r="936" spans="1:3">
       <c r="A936" s="1">
-        <v>958</v>
+        <v>934</v>
       </c>
       <c r="B936" t="s">
         <v>925</v>
@@ -13576,7 +13576,7 @@
     </row>
     <row r="937" spans="1:3">
       <c r="A937" s="1">
-        <v>959</v>
+        <v>935</v>
       </c>
       <c r="B937" t="s">
         <v>926</v>
@@ -13587,7 +13587,7 @@
     </row>
     <row r="938" spans="1:3">
       <c r="A938" s="1">
-        <v>960</v>
+        <v>936</v>
       </c>
       <c r="B938" t="s">
         <v>927</v>
@@ -13598,7 +13598,7 @@
     </row>
     <row r="939" spans="1:3">
       <c r="A939" s="1">
-        <v>961</v>
+        <v>937</v>
       </c>
       <c r="B939" t="s">
         <v>928</v>
@@ -13609,7 +13609,7 @@
     </row>
     <row r="940" spans="1:3">
       <c r="A940" s="1">
-        <v>962</v>
+        <v>938</v>
       </c>
       <c r="B940" t="s">
         <v>929</v>
@@ -13620,7 +13620,7 @@
     </row>
     <row r="941" spans="1:3">
       <c r="A941" s="1">
-        <v>963</v>
+        <v>939</v>
       </c>
       <c r="B941" t="s">
         <v>930</v>
@@ -13631,7 +13631,7 @@
     </row>
     <row r="942" spans="1:3">
       <c r="A942" s="1">
-        <v>964</v>
+        <v>940</v>
       </c>
       <c r="B942" t="s">
         <v>931</v>
@@ -13642,7 +13642,7 @@
     </row>
     <row r="943" spans="1:3">
       <c r="A943" s="1">
-        <v>965</v>
+        <v>941</v>
       </c>
       <c r="B943" t="s">
         <v>932</v>
@@ -13653,7 +13653,7 @@
     </row>
     <row r="944" spans="1:3">
       <c r="A944" s="1">
-        <v>966</v>
+        <v>942</v>
       </c>
       <c r="B944" t="s">
         <v>933</v>
@@ -13664,7 +13664,7 @@
     </row>
     <row r="945" spans="1:3">
       <c r="A945" s="1">
-        <v>967</v>
+        <v>943</v>
       </c>
       <c r="B945" t="s">
         <v>934</v>
@@ -13675,7 +13675,7 @@
     </row>
     <row r="946" spans="1:3">
       <c r="A946" s="1">
-        <v>968</v>
+        <v>944</v>
       </c>
       <c r="B946" t="s">
         <v>935</v>
@@ -13686,7 +13686,7 @@
     </row>
     <row r="947" spans="1:3">
       <c r="A947" s="1">
-        <v>969</v>
+        <v>945</v>
       </c>
       <c r="B947" t="s">
         <v>936</v>
@@ -13697,7 +13697,7 @@
     </row>
     <row r="948" spans="1:3">
       <c r="A948" s="1">
-        <v>970</v>
+        <v>946</v>
       </c>
       <c r="B948" t="s">
         <v>937</v>
@@ -13708,7 +13708,7 @@
     </row>
     <row r="949" spans="1:3">
       <c r="A949" s="1">
-        <v>972</v>
+        <v>947</v>
       </c>
       <c r="B949" t="s">
         <v>938</v>
@@ -13719,7 +13719,7 @@
     </row>
     <row r="950" spans="1:3">
       <c r="A950" s="1">
-        <v>973</v>
+        <v>948</v>
       </c>
       <c r="B950" t="s">
         <v>939</v>
@@ -13730,7 +13730,7 @@
     </row>
     <row r="951" spans="1:3">
       <c r="A951" s="1">
-        <v>974</v>
+        <v>949</v>
       </c>
       <c r="B951" t="s">
         <v>940</v>
@@ -13741,7 +13741,7 @@
     </row>
     <row r="952" spans="1:3">
       <c r="A952" s="1">
-        <v>975</v>
+        <v>950</v>
       </c>
       <c r="B952" t="s">
         <v>941</v>
@@ -13752,7 +13752,7 @@
     </row>
     <row r="953" spans="1:3">
       <c r="A953" s="1">
-        <v>976</v>
+        <v>951</v>
       </c>
       <c r="B953" t="s">
         <v>942</v>
@@ -13763,7 +13763,7 @@
     </row>
     <row r="954" spans="1:3">
       <c r="A954" s="1">
-        <v>977</v>
+        <v>952</v>
       </c>
       <c r="B954" t="s">
         <v>943</v>
@@ -13774,7 +13774,7 @@
     </row>
     <row r="955" spans="1:3">
       <c r="A955" s="1">
-        <v>978</v>
+        <v>953</v>
       </c>
       <c r="B955" t="s">
         <v>944</v>
@@ -13785,7 +13785,7 @@
     </row>
     <row r="956" spans="1:3">
       <c r="A956" s="1">
-        <v>979</v>
+        <v>954</v>
       </c>
       <c r="B956" t="s">
         <v>945</v>
@@ -13796,7 +13796,7 @@
     </row>
     <row r="957" spans="1:3">
       <c r="A957" s="1">
-        <v>980</v>
+        <v>955</v>
       </c>
       <c r="B957" t="s">
         <v>946</v>
@@ -13807,7 +13807,7 @@
     </row>
     <row r="958" spans="1:3">
       <c r="A958" s="1">
-        <v>981</v>
+        <v>956</v>
       </c>
       <c r="B958" t="s">
         <v>947</v>
@@ -13818,7 +13818,7 @@
     </row>
     <row r="959" spans="1:3">
       <c r="A959" s="1">
-        <v>982</v>
+        <v>957</v>
       </c>
       <c r="B959" t="s">
         <v>948</v>
@@ -13829,7 +13829,7 @@
     </row>
     <row r="960" spans="1:3">
       <c r="A960" s="1">
-        <v>983</v>
+        <v>958</v>
       </c>
       <c r="B960" t="s">
         <v>949</v>
@@ -13840,7 +13840,7 @@
     </row>
     <row r="961" spans="1:3">
       <c r="A961" s="1">
-        <v>984</v>
+        <v>959</v>
       </c>
       <c r="B961" t="s">
         <v>950</v>
@@ -13851,7 +13851,7 @@
     </row>
     <row r="962" spans="1:3">
       <c r="A962" s="1">
-        <v>985</v>
+        <v>960</v>
       </c>
       <c r="B962" t="s">
         <v>951</v>
@@ -13862,7 +13862,7 @@
     </row>
     <row r="963" spans="1:3">
       <c r="A963" s="1">
-        <v>986</v>
+        <v>961</v>
       </c>
       <c r="B963" t="s">
         <v>952</v>
@@ -13873,7 +13873,7 @@
     </row>
     <row r="964" spans="1:3">
       <c r="A964" s="1">
-        <v>987</v>
+        <v>962</v>
       </c>
       <c r="B964" t="s">
         <v>953</v>
@@ -13884,7 +13884,7 @@
     </row>
     <row r="965" spans="1:3">
       <c r="A965" s="1">
-        <v>988</v>
+        <v>963</v>
       </c>
       <c r="B965" t="s">
         <v>954</v>
@@ -13895,7 +13895,7 @@
     </row>
     <row r="966" spans="1:3">
       <c r="A966" s="1">
-        <v>989</v>
+        <v>964</v>
       </c>
       <c r="B966" t="s">
         <v>955</v>
@@ -13906,7 +13906,7 @@
     </row>
     <row r="967" spans="1:3">
       <c r="A967" s="1">
-        <v>990</v>
+        <v>965</v>
       </c>
       <c r="B967" t="s">
         <v>956</v>
@@ -13917,7 +13917,7 @@
     </row>
     <row r="968" spans="1:3">
       <c r="A968" s="1">
-        <v>991</v>
+        <v>966</v>
       </c>
       <c r="B968" t="s">
         <v>957</v>
@@ -13928,7 +13928,7 @@
     </row>
     <row r="969" spans="1:3">
       <c r="A969" s="1">
-        <v>992</v>
+        <v>967</v>
       </c>
       <c r="B969" t="s">
         <v>958</v>
@@ -13939,7 +13939,7 @@
     </row>
     <row r="970" spans="1:3">
       <c r="A970" s="1">
-        <v>993</v>
+        <v>968</v>
       </c>
       <c r="B970" t="s">
         <v>959</v>
@@ -13950,7 +13950,7 @@
     </row>
     <row r="971" spans="1:3">
       <c r="A971" s="1">
-        <v>994</v>
+        <v>969</v>
       </c>
       <c r="B971" t="s">
         <v>960</v>
@@ -13961,7 +13961,7 @@
     </row>
     <row r="972" spans="1:3">
       <c r="A972" s="1">
-        <v>995</v>
+        <v>970</v>
       </c>
       <c r="B972" t="s">
         <v>961</v>
@@ -13972,7 +13972,7 @@
     </row>
     <row r="973" spans="1:3">
       <c r="A973" s="1">
-        <v>996</v>
+        <v>971</v>
       </c>
       <c r="B973" t="s">
         <v>962</v>
@@ -13983,7 +13983,7 @@
     </row>
     <row r="974" spans="1:3">
       <c r="A974" s="1">
-        <v>997</v>
+        <v>972</v>
       </c>
       <c r="B974" t="s">
         <v>963</v>
@@ -13994,7 +13994,7 @@
     </row>
     <row r="975" spans="1:3">
       <c r="A975" s="1">
-        <v>998</v>
+        <v>973</v>
       </c>
       <c r="B975" t="s">
         <v>964</v>
